--- a/Text/03.테스트 시나리오/테스트 시나리오(영우).xlsx
+++ b/Text/03.테스트 시나리오/테스트 시나리오(영우).xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="5" lowestEdited="4" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="my" sheetId="1" r:id="rId1"/>
-    <sheet name="a" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="TB-TS" sheetId="1" r:id="rId1"/>
+    <sheet name="TB-TT" sheetId="4" r:id="rId2"/>
+    <sheet name="TB-TR" sheetId="2" r:id="rId3"/>
+    <sheet name="TB-TE" sheetId="3" r:id="rId4"/>
+    <sheet name="BC-PW" sheetId="5" r:id="rId5"/>
+    <sheet name="BC-PR" sheetId="6" r:id="rId6"/>
+    <sheet name="BC-PM" sheetId="7" r:id="rId7"/>
+    <sheet name="BC-PD" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">a!$A$1:$L$134</definedName>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
   <si>
     <t>실제결과</t>
   </si>
@@ -744,15 +748,541 @@
     <t>1. DB에 해당 게시글 DELETE 후 게시글 페이지로 이동
 2. 삭제 완료 메세지</t>
   </si>
+  <si/>
+  <si>
+    <t>안영우</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 테스트 서버에 이미 사은품이 관리자시스템을 통해서 준비되었음을 가정
+1. 사은품 A : 주문 사은품 30000원 이상 사은품, 50000원 미만 (단품 수량품)
+2. 사은품 B : 주문 사은품 50000원 이상 사은품                     (품목 수량품)
+3. 사은품 C : 상품 사은품 1                                                (단품 수량품)
+4. 사은품 D : 상품 수량품 2                                                (품목 수량품)
+# 사은품 A와 사은품 D과 같은 품목 수량품은 반드시 대표단품코드만 들어가야함 (업무적 제약사항임)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 각 자격증의 기출문제 데이터가 DB 관리자를 통해 준비되었음을 가정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 자격증과 각각의 기출문제 데이터가 DB 관리자를 통해 준비되었음을 가정</t>
+  </si>
+  <si>
+    <t>지정된 기출문제 데이터가 적절하게 노출되는가?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자격증, 기출문제, 과목 항목이 적절하게 나오는가? </t>
+  </si>
+  <si>
+    <t>험 선택  다음 3가지 항목에 대해 테스트</t>
+  </si>
+  <si>
+    <t>- 시험 선택 다음 3가지 항목에 대해 테스트</t>
+  </si>
+  <si>
+    <t>- 시험 선택 다음 3가지 항목에 대해 테스트
+1. 자격증
+2. 기출문제
+3. 과목</t>
+  </si>
+  <si>
+    <t>2019-09-23</t>
+  </si>
+  <si>
+    <t>- 시험을 선택하려고 할 시 다음 3가지 항목에 대해 테스트
+1. 자격증
+2. 기출문제
+3. 과목</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 선택된 시험을 칠때 </t>
+  </si>
+  <si>
+    <t>- 선택된 시험을 칠 시 다음과 같은 항목에 대해 테스트</t>
+  </si>
+  <si>
+    <t>- 선택된 시험을 칠 시 다음과 같은 항목에 대해 테스트 수행</t>
+  </si>
+  <si>
+    <t>- 시험 결과를 볼 시 다음 2가지 항목에 대해서 테스트 수행
+1. 주문사은품 : 특정 결제금액 이상 상품 구매시 해당하는 사은품 부여
+2. 상품사은품 : 사은품이 걸린 특정 상품 구매시 해당하는 사은품 부여</t>
+  </si>
+  <si>
+    <t>- 시험 해설을 확인 할 시 다음 2가지 항목에 대해서 테스트 수행
+1. 주문사은품 : 특정 결제금액 이상 상품 구매시 해당하는 사은품 부여
+2. 상품사은품 : 사은품이 걸린 특정 상품 구매시 해당하는 사은품 부여</t>
+  </si>
+  <si>
+    <t>- 시험 결과를 보려고 할 시에 다음과 같은 테스트를 수행
+1. 주문사은품 : 특정 결제금액 이상 상품 구매시 해당하는 사은품 부여
+2. 상품사은품 : 사은품이 걸린 특정 상품 구매시 해당하는 사은품 부여</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 사용자의 답안과 기출문제의 정답이 있을것을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 사용자의 답안과 기출문제의 정답이 있을 것을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 사용자의 답안과 해당 기출문제의 정답이 있을 것을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 사용자가 제출한 답안과 해당 기출문제의 정답이 있을 것을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 관리자시스템을 통해서 준비되었음을 가정
+1. 사은품 A : 주문 사은품 30000원 이상 사은품, 50000원 미만 (단품 수량품)
+2. 사은품 B : 주문 사은품 50000원 이상 사은품                     (품목 수량품)
+3. 사은품 C : 상품 사은품 1                                                (단품 수량품)
+4. 사은품 D : 상품 수량품 2                                                (품목 수량품)
+# 사은품 A와 사은품 D과 같은 품목 수량품은 반드시 대표단품코드만 들어가야함 (업무적 제약사항임)</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 사은품 A : 주문 사은품 30000원 이상 사은품, 50000원 미만 (단품 수량품)
+2. 사은품 B : 주문 사은품 50000원 이상 사은품                     (품목 수량품)
+3. 사은품 C : 상품 사은품 1                                                (단품 수량품)
+4. 사은품 D : 상품 수량품 2                                                (품목 수량품)
+# 사은품 A와 사은품 D과 같은 품목 수량품은 반드시 대표단품코드만 들어가야함 (업무적 제약사항임)</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 사용자가 제출한 답안과 해당 기출문제의 정답이 DB관리자를 통해 있을 것을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 사용자가 제출한 답안과 해당 기출문제의 정답이 DB관리자를 통해 준비되어 있음을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 시험 정보
+2. 시험 시간
+3. 기출문제</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 시험 정보
+2. 시험 시간
+3. 기출문제
+4. 기출문제 문항 수</t>
+  </si>
+  <si>
+    <t>1. 기출문제 문항 수 READ
+2. 문제 영역의 답안 고를시
+3. 번호이동 버튼 클릭시</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 시험 정보 : 선택한 시험에대한 정보가 들어 있는 데이터
+2. 시험 시간
+3. 기출문제
+4. 기출문제 문항 수</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 시험 정보 : 선택한 시험에대한 정보가 들어 있는 데이터
+2. 시험 시간 : 시험 제한 시간
+3. 기출문제
+4. 기출문제 문항 수</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 시험 정보 : 선택한 시험에대한 정보가 들어 있는 데이터
+2. 시험 시간 : 시험 제한 시간
+3. 기출문제 : 기출문제 문제
+4. 기출문제 문항 수</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 시험 정보 : 선택한 시험에대한 정보가 들어 있는 데이터
+2. 시험 시간 : 시험 제한 시간
+3. 기출문제 : 선택한 시험의 기출문제
+4. 기출문제 문항 수</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 시험 정보 : 선택한 시험에대한 정보가 들어 있는 데이터
+2. 시험 시간 : 시험 제한 시간
+3. 기출문제 : 선택한 시험의 기출문제
+4. 기출문제 문항 수 : 선택한 시험의 문항 수</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 시험 정보 : 선택한 시험에대한 정보가 들어 있는 데이터
+2. 시험 시간 : 시험 제한 시간
+3. 기출문제 : 선택한 시험의 기출문제
+4. 기출문제 문항 수 : 선택한 시험의 총 문항 수</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 시험 정보 : 선택한 시험에대한 정보가 들어 있는 데이터
+2. 시험 시간 : 시험 제한 시간
+3. 기출문제 : 선택한 시험의 모든 기출문제
+4. 기출문제 문항 수 : 선택한 시험의 총 문항 수</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 시험 정보 : 선택한 시험에대한 정보가 들어 있는 데이터
+2. 시험 시간 : 시험 제한 시간
+3. 기출문제 : 선택한 시험의 모든 문제
+4. 기출문제 문항 수 : 선택한 시험의 총 문항 수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 시험 선택 데이터가 DB 관리자를 통해 준비되었음을 가정
+1. 자격증 : 시험을 치려는 자격증
+2. 기출문제 : 자격증 카테고리에 존재하는 모든 기출문제
+3. 과목 : 선택한 기출문제의 과목
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 시험 선택 데이터가 DB 관리자를 통해 준비되었음을 가정
+1. 자격증 : 시험을 치려는 자격증
+2. 기출문제 : 자격증 카테고리 안에 존재하는 모든 기출문제
+3. 과목 : 선택한 기출문제의 과목
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 시험 선택 데이터가 DB 관리자를 통해 준비되었음을 가정
+1. 자격증 : 기출문제가 존재하는 자격증
+2. 기출문제 : 자격증 카테고리 안에 존재하는 모든 기출문제
+3. 과목 : 선택한 기출문제의 과목
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 시험 선택 데이터가 DB 관리자를 통해 준비되었음을 가정
+1. 자격증 : 서버에 기출문제가 존재하는 자격증
+2. 기출문제 : 자격증 카테고리 안에 존재하는 모든 기출문제
+3. 과목 : 선택한 기출문제의 과목
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 시험 선택 데이터가 DB 관리자를 통해 준비되었음을 가정
+1. 자격증 : 서버에 기출문제가 존재하는 자격증
+2. 기출문제 : 자격증 카테고리 안에 있는 모든 기출문제
+3. 과목 : 선택한 기출문제의 과목
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 시험 선택 데이터가 DB 관리자를 통해 준비되었음을 가정
+1. 자격증 : 서버에 기출문제가 존재하는 자격증
+2. 기출문제 : 선택한 자격증 카테고리 안에 있는 모든 기출문제
+3. 과목 : 선택한 기출문제의 과목
+</t>
+  </si>
+  <si>
+    <t>1. 자격증, 기출문제, 과목 항목이 적절하게 나오는가? 
+2. 선택한 항목은 시험치기 페이지로 잘 전송이 되는가?</t>
+  </si>
+  <si>
+    <t>1. 사용자가 선택한 시험이 올바르게 노출되는가?</t>
+  </si>
+  <si>
+    <t>1. 사용자가 선택한 시험이 올바르게 노출되는가?
+2. 시험 제한시간에 따른 자동 제출기능은 올바르게 작동하는가?
+3. 다음,이전, 번호이동 버튼 등 지금 풀려고 하는 문제가 올바르게 노출되는가?</t>
+  </si>
+  <si>
+    <t>1. 사용자가 선택한 시험이 올바르게 노출되는가?
+2. 시험 제한시간에 따른 자동 제출기능은 올바르게 작동하는가?
+3. 다음,이전, 번호이동 버튼 등 지금 풀려고 하는 문제가 올바르게 노출되는가?
+4. 사용자의 답안은 올바르게 전송되는가?</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 사용자가 제출한 답안과 해당 기출문제의 정답이 DB관리자를 통해 준비되어 있음을 가정
+1. 경과시간 : 사용자가 시험을 치는대 경과한 시간
+2. 점수 : 사용자의 답안과 기출문제의 정답을 채점한 점수
+3. 맞은 문제 : 사용자의 답안과 기출문제의 정답을 채점한 결과</t>
+  </si>
+  <si>
+    <t>- 사용자의 답안이 정확하게 채점되는가?</t>
+  </si>
+  <si>
+    <t>- 사용자가 푼 경과시간이 올바르게 노출되는가?
+'- 사용자의 답안이 정확하게 채점되는가?</t>
+  </si>
+  <si>
+    <t>[문제은행 사이트].[주문결제].[주문사은품 부여]</t>
+  </si>
+  <si>
+    <t>[문제은행 사이트].[문제은행].[시험 선택]</t>
+  </si>
+  <si>
+    <t>[문제은행 사이트].[문제은행].[시험풀기]</t>
+  </si>
+  <si>
+    <t>[문제은행 사이트].[문제은행].[시험선택]</t>
+  </si>
+  <si>
+    <t>[문제은행 사이트].[문제은행].[시험결과]</t>
+  </si>
+  <si>
+    <t>[문제은행 사이트].[문제은행].[시험해설]</t>
+  </si>
+  <si>
+    <t>[문제은행 사이트].[게시판].[시험해설]</t>
+  </si>
+  <si>
+    <t>[문제은행 사이트].[게시판공통].[게시글쓰기]</t>
+  </si>
+  <si>
+    <t>[문제은행 사이트].[게시판공통].[게시글답글]</t>
+  </si>
+  <si>
+    <t>[문제은행 사이트].[게시판공통].[게시글수정]</t>
+  </si>
+  <si>
+    <t>[문제은행 사이트].[게시판공통].[게시글삭제]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 시험 선택 데이터가 DB 관리자를 통해 준비되었음을 가정
+</t>
+  </si>
+  <si>
+    <t>- 시험을 선택하려고 할 시 다음 3가지 항목에 대해 테스트
+1. 자격증 : 서버에 기출문제가 존재하는 자격증
+2. 기출문제 : 선택한 자격증 카테고리 안에 있는 모든 기출문제
+3. 과목 : 선택한 기출문제의 과목</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정
+</t>
+  </si>
+  <si>
+    <t>- 선택된 시험을 칠 시 다음과 같은 항목에 대해 테스트 수행
+1. 시험 정보 : 선택한 시험에대한 정보가 들어 있는 데이터
+2. 시험 시간 : 시험 제한 시간
+3. 기출문제 : 선택한 시험의 모든 문제
+4. 기출문제 문항 수 : 선택한 시험의 총 문항 수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 테스트 서버에 이미 사용자가 제출한 답안과 해당 기출문제의 정답이 DB관리자를 통해 준비되어 있음을 가정
+</t>
+  </si>
+  <si>
+    <t>- 시험 결과를 보려고 할 시에 다음과 같은 테스트를 수행
+1. 경과시간 : 사용자가 시험을 치는대 경과한 시간
+2. 점수 : 사용자의 답안과 기출문제의 정답을 채점한 점수
+3. 맞은 문제 : 사용자의 답안과 기출문제의 정답을 채점한 결과</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 시험데이터가 DB관리자를 통해서 준비되었음을 가정
+1. 사은품 A : 주문 사은품 30000원 이상 사은품, 50000원 미만 (단품 수량품)
+2. 사은품 B : 주문 사은품 50000원 이상 사은품                     (품목 수량품)
+3. 사은품 C : 상품 사은품 1                                                (단품 수량품)
+4. 사은품 D : 상품 수량품 2                                                (품목 수량품)
+# 사은품 A와 사은품 D과 같은 품목 수량품은 반드시 대표단품코드만 들어가야함 (업무적 제약사항임)</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 시험데이터가 DB관리자를 통해서 준비되었음을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 삭제할 게시글이 존재함을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 DB관리자를 통해 삭제할 게시글이 존재함을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 삭제할 게시글이 DB관리자를 통해 존재함을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 삭제할 게시글이 DB관리자를 통해 준비되었음을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 수정할 게시글이 DB관리자를 통해 준비되었음을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 답글을 달 게시글이 DB관리자를 통해 준비되었음을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 답글 달 게시글이 DB관리자를 통해 준비되었음을 가정</t>
+  </si>
+  <si>
+    <t>- 시험 해설을 보려고 할 시에 다음과 같은 테스트를 수행
+1. 경과시간 : 사용자가 시험을 치는대 경과한 시간
+2. 점수 : 사용자의 답안과 기출문제의 정답을 채점한 점수
+3. 맞은 문제 : 사용자의 답안과 기출문제의 정답을 채점한 결과</t>
+  </si>
+  <si>
+    <t>- 시험 해설을 보려고 할 시에 다음과 같은 테스트를 수행
+1. 시험 정보 : 시험에 대한 정보
+1. 경과시간 : 사용자가 시험을 치는대 경과한 시간
+2. 점수 : 사용자의 답안과 기출문제의 정답을 채점한 점수
+3. 맞은 문제 : 사용자의 답안과 기출문제의 정답을 채점한 결과</t>
+  </si>
+  <si>
+    <t>- 시험 해설을 보려고 할 시에 다음과 같은 테스트를 수행
+1. 시험 정보 : 시험에 대한 정보
+2. 경과시간 : 사용자가 시험을 치는대 경과한 시간
+3. 점수 : 사용자의 답안과 기출문제의 정답을 채점한 점수
+4. 맞은 문제 : 사용자의 답안과 기출문제의 정답을 채점한 결과</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 시험 해설을 보려고 할 시에 다음과 같은 테스트를 수행
+1. 시험 정보 : 시험에 대한 정보
+2. 경과시간 : 사용자가 시험을 치는대 경과한 시간
+3. 점수 : 사용자의 답안과 기출문제의 정답을 채점한 점수
+4.  : 사용자의 답안과 기출문제의 정답을 채점한 결과
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 시험 해설을 보려고 할 시에 다음과 같은 테스트를 수행
+1. 시험 정보 : 시험에 대한 정보
+2. 경과시간 : 사용자가 시험을 치는대 경과한 시간
+3. 점수 : 사용자의 답안과 기출문제의 정답을 채점한 점수
+4. 기출문제 문항 수 : 선택한 시험의 총 문항 수
+</t>
+  </si>
+  <si>
+    <t>- 시험 해설을 보려고 할 시에 다음과 같은 테스트를 수행
+1. 시험 정보 : 시험에 대한 정보
+2. 경과시간 : 사용자가 시험을 치는대 경과한 시간
+3. 점수 : 사용자의 답안과 기출문제의 정답을 채점한 점수
+4. 기출문제 문항 수 : 선택한 시험의 총 문항 수</t>
+  </si>
+  <si>
+    <t>1. 시험 정보가 올바르게 노출되는가?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 시험 정보가 올바르게 노출되는가?
+</t>
+  </si>
+  <si>
+    <t>1. 사용자가 선택한 시험이 올바르게 노출되는가?
+2. 시험 제한시간에 따른 자동 제출기능은 올바르게 작동하는가?
+3. 다음,이전, 번호이동 버튼 등을 통해 지금 보려고 하는 문제가 올바르게 노출되는가?
+4. 사용자의 답안은 올바르게 전송되는가?</t>
+  </si>
+  <si>
+    <t>1. 사용자가 선택한 시험이 올바르게 노출되는가?
+2. 시험 제한시간에 따른 자동 제출기능은 올바르게 작동하는가?
+3. 다음,이전, 번호이동 버튼 등을 통해 지금 풀려고 하는 문제가 올바르게 노출되는가?
+4. 사용자의 답안은 올바르게 전송되는가?</t>
+  </si>
+  <si>
+    <t>1. 사용자가 푼 문제에 대한 해설이 올바르게 노출되는가?
+3. 다음,이전, 번호이동 버튼 등을 통해 지금 보려고 하는 문제가 올바르게 노출되는가?</t>
+  </si>
+  <si>
+    <t>1.사용자가 푼 경과시간이 올바르게 노출되는가?
+'- 사용자의 답안이 정확하게 채점되는가?</t>
+  </si>
+  <si>
+    <t>1.사용자가 푼 경과시간이 올바르게 노출되는가?
+2.- 사용자의 답안이 정확하게 채점되는가?</t>
+  </si>
+  <si>
+    <t>1. 사용자가 푼 경과시간이 올바르게 노출되는가?
+2. 사용자의 답안이 정확하게 채점되는가?</t>
+  </si>
+  <si>
+    <t>- 게시글을 작성 할시 다음과 같은 테스트를 수행
+1. 주문사은품 : 특정 결제금액 이상 상품 구매시 해당하는 사은품 부여
+2. 상품사은품 : 사은품이 걸린 특정 상품 구매시 해당하는 사은품 부여</t>
+  </si>
+  <si>
+    <t>-작성한 CREATE</t>
+  </si>
+  <si>
+    <t>1. 작성한 CREATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 작성한 CREATE
+2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 작성한 게시글이 DB에 올바르게 CREATE 되는가
+2. </t>
+  </si>
+  <si>
+    <t>1. 작성한 게시글이 DB에 올바르게 CREATE 되는가</t>
+  </si>
+  <si>
+    <t>- 게시글을 작성 할시 다음과 같은 테스트를 수행
+1. 작성한 게시글</t>
+  </si>
+  <si>
+    <t>- 게시글을 작성 할시 다음과 같은 테스트를 수행
+1. 작성된 게시글</t>
+  </si>
+  <si>
+    <t>답변을 달려고 하는 게시글의 정보가 올바르게 READ 되는가?</t>
+  </si>
+  <si>
+    <t>1. 답변을 달려고 하는 게시글의 정보가 올바르게 READ 되는가?
+2. 답변 게시글이 올바르게 CREATE 되는가?</t>
+  </si>
+  <si>
+    <t>- 게시글애 답글을 달시 다음 2가지 항목에 대해서 테스트 수행
+1. 주문사은품 : 특정 결제금액 이상 상품 구매시 해당하는 사은품 부여
+2. 상품사은품 : 사은품이 걸린 특정 상품 구매시 해당하는 사은품 부여</t>
+  </si>
+  <si>
+    <t>- 게시글을 작성 할시 다음과 같은 테스트를 수행
+1. 게시글</t>
+  </si>
+  <si>
+    <t>1. 수정을 달려고 하는 게시글의 데이터가 올바르게 READ 되는가?
+2. 답변 게시글이 올바르게 CREATE 되는가?</t>
+  </si>
+  <si>
+    <t>1. 수정을 달려고 하는 게시글의 데이터가 올바르게 READ 되는가?
+2. 수정한 게시글이 올바르게 CREATE 되는가?</t>
+  </si>
+  <si>
+    <t>1. 삭제하려고 하는 게시글의 데이터가 올바르게 READ 되는가?
+2. 수정한 게시글이 올바르게 CREATE 되는가?</t>
+  </si>
+  <si>
+    <t>1. 삭제하려고 하는 게시글의 데이터가 올바르게 DELETE 되는가?
+2. 수정한 게시글이 올바르게 CREATE 되는가?</t>
+  </si>
+  <si>
+    <t>1. 삭제하려고 하는 게시글의 데이터가 올바르게 DELETE 되는가?</t>
+  </si>
+  <si>
+    <t>- 게시글을 작성 할시 다음과 같은 테스트를 수행
+1. 삭제할 게시글 : 게시글 보기에서 삭제버튼을 누른 게시글</t>
+  </si>
+  <si>
+    <t>- 게시글을 작성 할시 다음과 같은 테스트를 수행
+1. 수정할된 게시글 : 게시글 보기</t>
+  </si>
+  <si>
+    <t>1. 수정하려고 하는 게시글의 데이터가 올바르게 READ 되는가?
+2. 수정한 게시글이 올바르게 CREATE 되는가?</t>
+  </si>
+  <si>
+    <t>- 게시글을 작성 할시 다음과 같은 테스트를 수행
+1. 수정할 게시글 : 게시글 보기에서 수정버튼을 누른 게시글</t>
+  </si>
+  <si>
+    <t>- 게시글을 작성 할시 다음과 같은 테스트를 수행
+1. 작성된 게시글 : 게시글보기에서 게시글 답변버튼을 클릭한 게시글</t>
+  </si>
+  <si>
+    <t>- 시험 해설을 보려고 할 시에 다음과 같은 테스트를 수행
+1. 시험 정보 : 시험에 대한 정보
+2. 경과시간 : 사용자가 시험을 치는대 경과한 시간
+4. 기출문제 문항 수 : 선택한 시험의 총 문항 수</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="65" formatCode="@"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="26">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -890,12 +1420,6 @@
       <color theme="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -909,112 +1433,10 @@
       <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
       <color theme="1"/>
     </font>
     <font>
@@ -1028,7 +1450,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,152 +1652,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1491,21 +1769,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1637,49 +1900,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1706,7 +1926,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -1715,34 +1935,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1757,10 +1977,10 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1769,10 +1989,10 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1781,10 +2001,10 @@
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1793,10 +2013,10 @@
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1805,10 +2025,10 @@
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1817,20 +2037,20 @@
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1903,7 +2123,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1921,187 +2141,262 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="23" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="22" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="23" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="23" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="21" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="18" xfId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="17" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="48" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="18" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="18" xfId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="19" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="20" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="20" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="23" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="25" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="23" xfId="29" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="23" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="33" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="23" xfId="37" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="37" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="23" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="23" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="23" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="23" xfId="30" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="30" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="23" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="23" xfId="38" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="38" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="23" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="23" xfId="46" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="46" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="46" borderId="23" xfId="27" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="27" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="47" borderId="23" xfId="31" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="31" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="48" borderId="23" xfId="35" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="35" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="49" borderId="23" xfId="39" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="39" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="50" borderId="23" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="43" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="51" borderId="23" xfId="47" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="47" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="52" borderId="23" xfId="24" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="24" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="53" borderId="23" xfId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="28" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="23" xfId="32" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" xfId="32" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="55" borderId="23" xfId="36" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" xfId="36" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="56" borderId="23" xfId="40" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" xfId="40" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="23" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" xfId="44" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="23" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="23" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="22" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="65" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="65" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="65" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="65" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2446,12 +2741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L228"/>
+  <dimension ref="A1:L232"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A14" sqref="A14"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18:D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2469,967 +2762,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30.000000" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="A1" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:12" ht="30.750000" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" ht="5.100000" customHeight="1"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+    </row>
+    <row r="3" spans="1:12" ht="5.100000" customHeight="1">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+    </row>
     <row r="4" spans="1:12">
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="90"/>
+      <c r="G4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="91"/>
+      <c r="J4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="92" t="s">
         <v>8</v>
       </c>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6">
-        <v>40143</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" ht="5.100000" customHeight="1"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="90"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="91"/>
+    </row>
+    <row r="6" spans="1:12" ht="5.100000" customHeight="1">
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+    </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" ht="63.750000" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="12"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
+    </row>
+    <row r="8" spans="1:12" ht="81.750000" customHeight="1">
+      <c r="A8" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="99"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
     </row>
     <row r="10" spans="1:12" ht="60.000000" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="12"/>
+      <c r="A10" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="102"/>
+    </row>
+    <row r="12" spans="1:12" ht="63.000000" customHeight="1">
+      <c r="A12" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="105"/>
     </row>
     <row r="13" spans="1:12" ht="5.100000" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="24.000000" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="92"/>
     </row>
     <row r="15" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
     </row>
     <row r="16" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="23" t="s">
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
     </row>
     <row r="17" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23" t="s">
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
     </row>
     <row r="18" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30" t="s">
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
     </row>
     <row r="19" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="23" t="s">
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-    </row>
-    <row r="22" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-    </row>
-    <row r="23" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-    </row>
-    <row r="24" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-    </row>
-    <row r="26" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-    </row>
-    <row r="27" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A27" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-    </row>
-    <row r="28" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A28" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-    </row>
-    <row r="29" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A29" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-    </row>
-    <row r="30" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A30" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A31" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-    </row>
-    <row r="32" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A32" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-    </row>
-    <row r="33" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A33" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-    </row>
-    <row r="34" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A34" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-    </row>
-    <row r="35" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A35" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-    </row>
-    <row r="36" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A36" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-    </row>
-    <row r="37" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A37" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-    </row>
-    <row r="38" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A38" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-    </row>
-    <row r="39" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A39" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-    </row>
-    <row r="40" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A40" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-    </row>
-    <row r="41" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A41" s="85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-    </row>
-    <row r="42" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A42" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-    </row>
-    <row r="43" spans="1:12" ht="55.000000" customHeight="1">
-      <c r="A43" s="85" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-    </row>
-    <row r="44" spans="1:12" ht="50.000000" customHeight="1">
-      <c r="A44" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-    </row>
-    <row r="45" spans="1:12" ht="50.000000" customHeight="1">
-      <c r="A45" s="90" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-    </row>
-    <row r="46" spans="1:12" ht="50.000000" customHeight="1">
-      <c r="A46" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-    </row>
-    <row r="47" spans="1:12" ht="50.000000" customHeight="1">
-      <c r="A47" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-    </row>
-    <row r="48" spans="1:12" ht="50.000000" customHeight="1">
-      <c r="A48" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-    </row>
-    <row r="49" spans="1:12" ht="50.000000" customHeight="1">
-      <c r="A49" s="90" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-    </row>
-    <row r="50" spans="1:12" ht="50.000000" customHeight="1">
-      <c r="A50" s="90" t="s">
-        <v>196</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-    </row>
-    <row r="51" spans="1:12" ht="50.000000" customHeight="1">
-      <c r="A51" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-    </row>
-    <row r="52" spans="1:12" ht="50.000000" customHeight="1">
-      <c r="A52" s="90" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+    </row>
+    <row r="20" ht="55.000000" customHeight="1"/>
+    <row r="21" ht="55.000000" customHeight="1"/>
+    <row r="22" ht="55.000000" customHeight="1"/>
+    <row r="23" ht="55.000000" customHeight="1"/>
+    <row r="24" ht="55.000000" customHeight="1"/>
+    <row r="25" ht="55.000000" customHeight="1"/>
+    <row r="26" ht="55.000000" customHeight="1"/>
+    <row r="27" ht="55.000000" customHeight="1"/>
+    <row r="28" ht="55.000000" customHeight="1"/>
+    <row r="29" ht="55.000000" customHeight="1"/>
+    <row r="30" ht="55.000000" customHeight="1"/>
+    <row r="31" ht="55.000000" customHeight="1"/>
+    <row r="32" ht="55.000000" customHeight="1"/>
+    <row r="33" ht="55.000000" customHeight="1"/>
+    <row r="34" ht="55.000000" customHeight="1"/>
+    <row r="35" ht="55.000000" customHeight="1"/>
+    <row r="36" ht="55.000000" customHeight="1"/>
+    <row r="37" ht="55.000000" customHeight="1"/>
+    <row r="38" ht="55.000000" customHeight="1"/>
+    <row r="39" ht="55.000000" customHeight="1"/>
+    <row r="40" ht="55.000000" customHeight="1"/>
+    <row r="41" ht="55.000000" customHeight="1"/>
+    <row r="42" ht="55.000000" customHeight="1"/>
+    <row r="43" ht="55.000000" customHeight="1"/>
+    <row r="44" ht="50.000000" customHeight="1"/>
+    <row r="45" ht="50.000000" customHeight="1"/>
+    <row r="46" ht="50.000000" customHeight="1"/>
+    <row r="47" ht="50.000000" customHeight="1"/>
+    <row r="48" ht="50.000000" customHeight="1"/>
+    <row r="49" ht="50.000000" customHeight="1"/>
+    <row r="50" ht="50.000000" customHeight="1"/>
+    <row r="51" ht="50.000000" customHeight="1"/>
+    <row r="52" ht="50.000000" customHeight="1"/>
+    <row r="53" spans="2:12">
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -3442,7 +3145,7 @@
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="2:12">
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -3455,7 +3158,7 @@
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="2:12">
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -3468,7 +3171,7 @@
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="2:12">
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
@@ -3481,7 +3184,7 @@
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="2:12">
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
       <c r="D57" s="22"/>
@@ -3494,7 +3197,7 @@
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="2:12">
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -3507,7 +3210,7 @@
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="2:12">
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
@@ -3520,7 +3223,7 @@
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="2:12">
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -3533,7 +3236,7 @@
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="2:12">
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -3546,7 +3249,7 @@
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="2:12">
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
@@ -3559,7 +3262,7 @@
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="2:12">
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -3572,7 +3275,7 @@
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="2:12">
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -5457,7 +5160,7 @@
       <c r="K208" s="22"/>
       <c r="L208" s="22"/>
     </row>
-    <row r="209" spans="2:12">
+    <row r="209">
       <c r="B209" s="0"/>
       <c r="C209" s="0"/>
       <c r="D209" s="0"/>
@@ -5470,7 +5173,7 @@
       <c r="K209" s="0"/>
       <c r="L209" s="0"/>
     </row>
-    <row r="210" spans="2:12">
+    <row r="210">
       <c r="B210" s="0"/>
       <c r="C210" s="0"/>
       <c r="D210" s="0"/>
@@ -5483,7 +5186,7 @@
       <c r="K210" s="0"/>
       <c r="L210" s="0"/>
     </row>
-    <row r="211" spans="2:12">
+    <row r="211">
       <c r="B211" s="0"/>
       <c r="C211" s="0"/>
       <c r="D211" s="0"/>
@@ -5496,7 +5199,7 @@
       <c r="K211" s="0"/>
       <c r="L211" s="0"/>
     </row>
-    <row r="212" spans="2:12">
+    <row r="212">
       <c r="B212" s="0"/>
       <c r="C212" s="0"/>
       <c r="D212" s="0"/>
@@ -5509,7 +5212,7 @@
       <c r="K212" s="0"/>
       <c r="L212" s="0"/>
     </row>
-    <row r="213" spans="2:12">
+    <row r="213">
       <c r="B213" s="0"/>
       <c r="C213" s="0"/>
       <c r="D213" s="0"/>
@@ -5522,7 +5225,7 @@
       <c r="K213" s="0"/>
       <c r="L213" s="0"/>
     </row>
-    <row r="214" spans="2:12">
+    <row r="214">
       <c r="B214" s="0"/>
       <c r="C214" s="0"/>
       <c r="D214" s="0"/>
@@ -5535,7 +5238,7 @@
       <c r="K214" s="0"/>
       <c r="L214" s="0"/>
     </row>
-    <row r="215" spans="2:12">
+    <row r="215">
       <c r="B215" s="0"/>
       <c r="C215" s="0"/>
       <c r="D215" s="0"/>
@@ -5548,7 +5251,7 @@
       <c r="K215" s="0"/>
       <c r="L215" s="0"/>
     </row>
-    <row r="216" spans="2:12">
+    <row r="216">
       <c r="B216" s="0"/>
       <c r="C216" s="0"/>
       <c r="D216" s="0"/>
@@ -5561,7 +5264,7 @@
       <c r="K216" s="0"/>
       <c r="L216" s="0"/>
     </row>
-    <row r="217" spans="2:12">
+    <row r="217">
       <c r="B217" s="0"/>
       <c r="C217" s="0"/>
       <c r="D217" s="0"/>
@@ -5574,7 +5277,7 @@
       <c r="K217" s="0"/>
       <c r="L217" s="0"/>
     </row>
-    <row r="218" spans="2:12">
+    <row r="218">
       <c r="B218" s="0"/>
       <c r="C218" s="0"/>
       <c r="D218" s="0"/>
@@ -5587,7 +5290,7 @@
       <c r="K218" s="0"/>
       <c r="L218" s="0"/>
     </row>
-    <row r="219" spans="2:12">
+    <row r="219">
       <c r="B219" s="0"/>
       <c r="C219" s="0"/>
       <c r="D219" s="0"/>
@@ -5600,7 +5303,7 @@
       <c r="K219" s="0"/>
       <c r="L219" s="0"/>
     </row>
-    <row r="220" spans="2:12">
+    <row r="220">
       <c r="B220" s="0"/>
       <c r="C220" s="0"/>
       <c r="D220" s="0"/>
@@ -5613,7 +5316,7 @@
       <c r="K220" s="0"/>
       <c r="L220" s="0"/>
     </row>
-    <row r="221" spans="2:12">
+    <row r="221">
       <c r="B221" s="0"/>
       <c r="C221" s="0"/>
       <c r="D221" s="0"/>
@@ -5626,7 +5329,7 @@
       <c r="K221" s="0"/>
       <c r="L221" s="0"/>
     </row>
-    <row r="222" spans="2:12">
+    <row r="222">
       <c r="B222" s="0"/>
       <c r="C222" s="0"/>
       <c r="D222" s="0"/>
@@ -5639,7 +5342,7 @@
       <c r="K222" s="0"/>
       <c r="L222" s="0"/>
     </row>
-    <row r="223" spans="2:12">
+    <row r="223">
       <c r="B223" s="0"/>
       <c r="C223" s="0"/>
       <c r="D223" s="0"/>
@@ -5652,7 +5355,7 @@
       <c r="K223" s="0"/>
       <c r="L223" s="0"/>
     </row>
-    <row r="224" spans="2:12">
+    <row r="224">
       <c r="B224" s="0"/>
       <c r="C224" s="0"/>
       <c r="D224" s="0"/>
@@ -5665,7 +5368,7 @@
       <c r="K224" s="0"/>
       <c r="L224" s="0"/>
     </row>
-    <row r="225" spans="2:12">
+    <row r="225">
       <c r="B225" s="0"/>
       <c r="C225" s="0"/>
       <c r="D225" s="0"/>
@@ -5678,7 +5381,7 @@
       <c r="K225" s="0"/>
       <c r="L225" s="0"/>
     </row>
-    <row r="226" spans="2:12">
+    <row r="226">
       <c r="B226" s="0"/>
       <c r="C226" s="0"/>
       <c r="D226" s="0"/>
@@ -5691,7 +5394,7 @@
       <c r="K226" s="0"/>
       <c r="L226" s="0"/>
     </row>
-    <row r="227" spans="2:12">
+    <row r="227">
       <c r="B227" s="0"/>
       <c r="C227" s="0"/>
       <c r="D227" s="0"/>
@@ -5704,7 +5407,7 @@
       <c r="K227" s="0"/>
       <c r="L227" s="0"/>
     </row>
-    <row r="228" spans="2:12">
+    <row r="228">
       <c r="B228" s="0"/>
       <c r="C228" s="0"/>
       <c r="D228" s="0"/>
@@ -5717,8 +5420,60 @@
       <c r="K228" s="0"/>
       <c r="L228" s="0"/>
     </row>
+    <row r="229">
+      <c r="B229" s="0"/>
+      <c r="C229" s="0"/>
+      <c r="D229" s="0"/>
+      <c r="E229" s="0"/>
+      <c r="F229" s="0"/>
+      <c r="G229" s="0"/>
+      <c r="H229" s="0"/>
+      <c r="I229" s="0"/>
+      <c r="J229" s="0"/>
+      <c r="K229" s="0"/>
+      <c r="L229" s="0"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="0"/>
+      <c r="C230" s="0"/>
+      <c r="D230" s="0"/>
+      <c r="E230" s="0"/>
+      <c r="F230" s="0"/>
+      <c r="G230" s="0"/>
+      <c r="H230" s="0"/>
+      <c r="I230" s="0"/>
+      <c r="J230" s="0"/>
+      <c r="K230" s="0"/>
+      <c r="L230" s="0"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="0"/>
+      <c r="C231" s="0"/>
+      <c r="D231" s="0"/>
+      <c r="E231" s="0"/>
+      <c r="F231" s="0"/>
+      <c r="G231" s="0"/>
+      <c r="H231" s="0"/>
+      <c r="I231" s="0"/>
+      <c r="J231" s="0"/>
+      <c r="K231" s="0"/>
+      <c r="L231" s="0"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="0"/>
+      <c r="C232" s="0"/>
+      <c r="D232" s="0"/>
+      <c r="E232" s="0"/>
+      <c r="F232" s="0"/>
+      <c r="G232" s="0"/>
+      <c r="H232" s="0"/>
+      <c r="I232" s="0"/>
+      <c r="J232" s="0"/>
+      <c r="K232" s="0"/>
+      <c r="L232" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="788">
+  <mergeCells count="656">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A7:L7"/>
@@ -5751,138 +5506,6 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="E53:G53"/>
     <mergeCell ref="H53:J53"/>
@@ -6516,19 +6139,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L228"/>
+  <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
     <col min="1" max="1" style="1" width="11.25500011" customWidth="1" outlineLevel="0"/>
     <col min="2" max="3" width="10.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="31.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="15.63000011" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="5.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="8" width="15.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="29.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="15.63000011" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" width="5.63000011" customWidth="1" outlineLevel="0"/>
     <col min="10" max="11" width="15.63000011" customWidth="1" outlineLevel="0"/>
     <col min="12" max="12" width="5.63000011" customWidth="1" outlineLevel="0"/>
@@ -6536,7 +6161,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30.000000" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -6590,10 +6215,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="E5" s="6">
-        <v>40143</v>
+        <v>43731</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5"/>
@@ -6619,9 +6244,9 @@
       <c r="K7" s="17"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:12" ht="63.750000" customHeight="1">
+    <row r="8" spans="1:12" ht="129.000000" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>48</v>
+        <v>280</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6651,9 +6276,9 @@
       <c r="K9" s="20"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="1:12" ht="60.000000" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>30</v>
+    <row r="10" spans="1:12" ht="84.000000" customHeight="1">
+      <c r="A10" s="87" t="s">
+        <v>301</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6683,9 +6308,9 @@
       <c r="K11" s="20"/>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
+    <row r="12" spans="1:12" ht="62.250000" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -6737,245 +6362,224 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="49.500000" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="33.000000" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" ht="34.500000" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="54.750000" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="54.750000" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="45.000000" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="48.000000" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="48.750000" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" ht="33.750000" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" ht="51.000000" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" ht="36.000000" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" ht="54.000000" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+    <row r="15" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A16" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A22" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A23" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.500000" customHeight="1">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.500000" customHeight="1">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="22"/>
@@ -7003,7 +6607,7 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" ht="16.500000" customHeight="1">
+    <row r="29" spans="1:12">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -7016,7 +6620,7 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" ht="16.500000" customHeight="1">
+    <row r="30" spans="1:12">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -7029,7 +6633,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" ht="16.500000" customHeight="1">
+    <row r="31" spans="1:12">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -7042,7 +6646,7 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" ht="16.500000" customHeight="1">
+    <row r="32" spans="1:12">
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -7055,7 +6659,7 @@
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="2:12" ht="16.500000" customHeight="1">
+    <row r="33" spans="2:12">
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -7068,7 +6672,7 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="2:12" ht="16.500000" customHeight="1">
+    <row r="34" spans="2:12">
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -7081,7 +6685,7 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="2:12" ht="16.500000" customHeight="1">
+    <row r="35" spans="2:12">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -7094,7 +6698,7 @@
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="2:12" ht="16.500000" customHeight="1">
+    <row r="36" spans="2:12">
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
@@ -7107,7 +6711,7 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="2:12" ht="16.500000" customHeight="1">
+    <row r="37" spans="2:12">
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -7120,7 +6724,7 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="2:12" ht="16.500000" customHeight="1">
+    <row r="38" spans="2:12">
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -7133,7 +6737,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="2:12" ht="16.500000" customHeight="1">
+    <row r="39" spans="2:12">
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
@@ -7146,7 +6750,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="2:12" ht="16.500000" customHeight="1">
+    <row r="40" spans="2:12">
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
@@ -9409,202 +9013,163 @@
       <c r="L213" s="22"/>
     </row>
     <row r="214" spans="2:12">
-      <c r="B214" s="22"/>
-      <c r="C214" s="22"/>
-      <c r="D214" s="22"/>
-      <c r="E214" s="22"/>
-      <c r="F214" s="22"/>
-      <c r="G214" s="22"/>
-      <c r="H214" s="22"/>
-      <c r="I214" s="22"/>
-      <c r="J214" s="22"/>
-      <c r="K214" s="22"/>
-      <c r="L214" s="22"/>
+      <c r="B214" s="0"/>
+      <c r="C214" s="0"/>
+      <c r="D214" s="0"/>
+      <c r="E214" s="0"/>
+      <c r="F214" s="0"/>
+      <c r="G214" s="0"/>
+      <c r="H214" s="0"/>
+      <c r="I214" s="0"/>
+      <c r="J214" s="0"/>
+      <c r="K214" s="0"/>
+      <c r="L214" s="0"/>
     </row>
     <row r="215" spans="2:12">
-      <c r="B215" s="22"/>
-      <c r="C215" s="22"/>
-      <c r="D215" s="22"/>
-      <c r="E215" s="22"/>
-      <c r="F215" s="22"/>
-      <c r="G215" s="22"/>
-      <c r="H215" s="22"/>
-      <c r="I215" s="22"/>
-      <c r="J215" s="22"/>
-      <c r="K215" s="22"/>
-      <c r="L215" s="22"/>
+      <c r="B215" s="0"/>
+      <c r="C215" s="0"/>
+      <c r="D215" s="0"/>
+      <c r="E215" s="0"/>
+      <c r="F215" s="0"/>
+      <c r="G215" s="0"/>
+      <c r="H215" s="0"/>
+      <c r="I215" s="0"/>
+      <c r="J215" s="0"/>
+      <c r="K215" s="0"/>
+      <c r="L215" s="0"/>
     </row>
     <row r="216" spans="2:12">
-      <c r="B216" s="22"/>
-      <c r="C216" s="22"/>
-      <c r="D216" s="22"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="22"/>
-      <c r="G216" s="22"/>
-      <c r="H216" s="22"/>
-      <c r="I216" s="22"/>
-      <c r="J216" s="22"/>
-      <c r="K216" s="22"/>
-      <c r="L216" s="22"/>
+      <c r="B216" s="0"/>
+      <c r="C216" s="0"/>
+      <c r="D216" s="0"/>
+      <c r="E216" s="0"/>
+      <c r="F216" s="0"/>
+      <c r="G216" s="0"/>
+      <c r="H216" s="0"/>
+      <c r="I216" s="0"/>
+      <c r="J216" s="0"/>
+      <c r="K216" s="0"/>
+      <c r="L216" s="0"/>
     </row>
     <row r="217" spans="2:12">
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
-      <c r="E217" s="22"/>
-      <c r="F217" s="22"/>
-      <c r="G217" s="22"/>
-      <c r="H217" s="22"/>
-      <c r="I217" s="22"/>
-      <c r="J217" s="22"/>
-      <c r="K217" s="22"/>
-      <c r="L217" s="22"/>
+      <c r="B217" s="0"/>
+      <c r="C217" s="0"/>
+      <c r="D217" s="0"/>
+      <c r="E217" s="0"/>
+      <c r="F217" s="0"/>
+      <c r="G217" s="0"/>
+      <c r="H217" s="0"/>
+      <c r="I217" s="0"/>
+      <c r="J217" s="0"/>
+      <c r="K217" s="0"/>
+      <c r="L217" s="0"/>
     </row>
     <row r="218" spans="2:12">
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
-      <c r="E218" s="22"/>
-      <c r="F218" s="22"/>
-      <c r="G218" s="22"/>
-      <c r="H218" s="22"/>
-      <c r="I218" s="22"/>
-      <c r="J218" s="22"/>
-      <c r="K218" s="22"/>
-      <c r="L218" s="22"/>
+      <c r="B218" s="0"/>
+      <c r="C218" s="0"/>
+      <c r="D218" s="0"/>
+      <c r="E218" s="0"/>
+      <c r="F218" s="0"/>
+      <c r="G218" s="0"/>
+      <c r="H218" s="0"/>
+      <c r="I218" s="0"/>
+      <c r="J218" s="0"/>
+      <c r="K218" s="0"/>
+      <c r="L218" s="0"/>
     </row>
     <row r="219" spans="2:12">
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22"/>
-      <c r="F219" s="22"/>
-      <c r="G219" s="22"/>
-      <c r="H219" s="22"/>
-      <c r="I219" s="22"/>
-      <c r="J219" s="22"/>
-      <c r="K219" s="22"/>
-      <c r="L219" s="22"/>
+      <c r="B219" s="0"/>
+      <c r="C219" s="0"/>
+      <c r="D219" s="0"/>
+      <c r="E219" s="0"/>
+      <c r="F219" s="0"/>
+      <c r="G219" s="0"/>
+      <c r="H219" s="0"/>
+      <c r="I219" s="0"/>
+      <c r="J219" s="0"/>
+      <c r="K219" s="0"/>
+      <c r="L219" s="0"/>
     </row>
     <row r="220" spans="2:12">
-      <c r="B220" s="22"/>
-      <c r="C220" s="22"/>
-      <c r="D220" s="22"/>
-      <c r="E220" s="22"/>
-      <c r="F220" s="22"/>
-      <c r="G220" s="22"/>
-      <c r="H220" s="22"/>
-      <c r="I220" s="22"/>
-      <c r="J220" s="22"/>
-      <c r="K220" s="22"/>
-      <c r="L220" s="22"/>
+      <c r="B220" s="0"/>
+      <c r="C220" s="0"/>
+      <c r="D220" s="0"/>
+      <c r="E220" s="0"/>
+      <c r="F220" s="0"/>
+      <c r="G220" s="0"/>
+      <c r="H220" s="0"/>
+      <c r="I220" s="0"/>
+      <c r="J220" s="0"/>
+      <c r="K220" s="0"/>
+      <c r="L220" s="0"/>
     </row>
     <row r="221" spans="2:12">
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
-      <c r="F221" s="22"/>
-      <c r="G221" s="22"/>
-      <c r="H221" s="22"/>
-      <c r="I221" s="22"/>
-      <c r="J221" s="22"/>
-      <c r="K221" s="22"/>
-      <c r="L221" s="22"/>
+      <c r="B221" s="0"/>
+      <c r="C221" s="0"/>
+      <c r="D221" s="0"/>
+      <c r="E221" s="0"/>
+      <c r="F221" s="0"/>
+      <c r="G221" s="0"/>
+      <c r="H221" s="0"/>
+      <c r="I221" s="0"/>
+      <c r="J221" s="0"/>
+      <c r="K221" s="0"/>
+      <c r="L221" s="0"/>
     </row>
     <row r="222" spans="2:12">
-      <c r="B222" s="22"/>
-      <c r="C222" s="22"/>
-      <c r="D222" s="22"/>
-      <c r="E222" s="22"/>
-      <c r="F222" s="22"/>
-      <c r="G222" s="22"/>
-      <c r="H222" s="22"/>
-      <c r="I222" s="22"/>
-      <c r="J222" s="22"/>
-      <c r="K222" s="22"/>
-      <c r="L222" s="22"/>
+      <c r="B222" s="0"/>
+      <c r="C222" s="0"/>
+      <c r="D222" s="0"/>
+      <c r="E222" s="0"/>
+      <c r="F222" s="0"/>
+      <c r="G222" s="0"/>
+      <c r="H222" s="0"/>
+      <c r="I222" s="0"/>
+      <c r="J222" s="0"/>
+      <c r="K222" s="0"/>
+      <c r="L222" s="0"/>
     </row>
     <row r="223" spans="2:12">
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
-      <c r="E223" s="22"/>
-      <c r="F223" s="22"/>
-      <c r="G223" s="22"/>
-      <c r="H223" s="22"/>
-      <c r="I223" s="22"/>
-      <c r="J223" s="22"/>
-      <c r="K223" s="22"/>
-      <c r="L223" s="22"/>
+      <c r="B223" s="0"/>
+      <c r="C223" s="0"/>
+      <c r="D223" s="0"/>
+      <c r="E223" s="0"/>
+      <c r="F223" s="0"/>
+      <c r="G223" s="0"/>
+      <c r="H223" s="0"/>
+      <c r="I223" s="0"/>
+      <c r="J223" s="0"/>
+      <c r="K223" s="0"/>
+      <c r="L223" s="0"/>
     </row>
     <row r="224" spans="2:12">
-      <c r="B224" s="22"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="22"/>
-      <c r="E224" s="22"/>
-      <c r="F224" s="22"/>
-      <c r="G224" s="22"/>
-      <c r="H224" s="22"/>
-      <c r="I224" s="22"/>
-      <c r="J224" s="22"/>
-      <c r="K224" s="22"/>
-      <c r="L224" s="22"/>
+      <c r="B224" s="0"/>
+      <c r="C224" s="0"/>
+      <c r="D224" s="0"/>
+      <c r="E224" s="0"/>
+      <c r="F224" s="0"/>
+      <c r="G224" s="0"/>
+      <c r="H224" s="0"/>
+      <c r="I224" s="0"/>
+      <c r="J224" s="0"/>
+      <c r="K224" s="0"/>
+      <c r="L224" s="0"/>
     </row>
     <row r="225" spans="2:12">
-      <c r="B225" s="22"/>
-      <c r="C225" s="22"/>
-      <c r="D225" s="22"/>
-      <c r="E225" s="22"/>
-      <c r="F225" s="22"/>
-      <c r="G225" s="22"/>
-      <c r="H225" s="22"/>
-      <c r="I225" s="22"/>
-      <c r="J225" s="22"/>
-      <c r="K225" s="22"/>
-      <c r="L225" s="22"/>
-    </row>
-    <row r="226" spans="2:12">
-      <c r="B226" s="22"/>
-      <c r="C226" s="22"/>
-      <c r="D226" s="22"/>
-      <c r="E226" s="22"/>
-      <c r="F226" s="22"/>
-      <c r="G226" s="22"/>
-      <c r="H226" s="22"/>
-      <c r="I226" s="22"/>
-      <c r="J226" s="22"/>
-      <c r="K226" s="22"/>
-      <c r="L226" s="22"/>
-    </row>
-    <row r="227" spans="2:12">
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
-      <c r="D227" s="22"/>
-      <c r="E227" s="22"/>
-      <c r="F227" s="22"/>
-      <c r="G227" s="22"/>
-      <c r="H227" s="22"/>
-      <c r="I227" s="22"/>
-      <c r="J227" s="22"/>
-      <c r="K227" s="22"/>
-      <c r="L227" s="22"/>
-    </row>
-    <row r="228" spans="2:12">
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
-      <c r="E228" s="22"/>
-      <c r="F228" s="22"/>
-      <c r="G228" s="22"/>
-      <c r="H228" s="22"/>
-      <c r="I228" s="22"/>
-      <c r="J228" s="22"/>
-      <c r="K228" s="22"/>
-      <c r="L228" s="22"/>
+      <c r="B225" s="0"/>
+      <c r="C225" s="0"/>
+      <c r="D225" s="0"/>
+      <c r="E225" s="0"/>
+      <c r="F225" s="0"/>
+      <c r="G225" s="0"/>
+      <c r="H225" s="0"/>
+      <c r="I225" s="0"/>
+      <c r="J225" s="0"/>
+      <c r="K225" s="0"/>
+      <c r="L225" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="868">
+  <mergeCells count="808">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A7:L7"/>
@@ -10413,66 +9978,6 @@
     <mergeCell ref="E213:G213"/>
     <mergeCell ref="H213:J213"/>
     <mergeCell ref="K213:L213"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="E214:G214"/>
-    <mergeCell ref="H214:J214"/>
-    <mergeCell ref="K214:L214"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="E215:G215"/>
-    <mergeCell ref="H215:J215"/>
-    <mergeCell ref="K215:L215"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="E216:G216"/>
-    <mergeCell ref="H216:J216"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="E217:G217"/>
-    <mergeCell ref="H217:J217"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="E218:G218"/>
-    <mergeCell ref="H218:J218"/>
-    <mergeCell ref="K218:L218"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="E219:G219"/>
-    <mergeCell ref="H219:J219"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="H220:J220"/>
-    <mergeCell ref="K220:L220"/>
-    <mergeCell ref="B221:D221"/>
-    <mergeCell ref="E221:G221"/>
-    <mergeCell ref="H221:J221"/>
-    <mergeCell ref="K221:L221"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="E222:G222"/>
-    <mergeCell ref="H222:J222"/>
-    <mergeCell ref="K222:L222"/>
-    <mergeCell ref="B223:D223"/>
-    <mergeCell ref="E223:G223"/>
-    <mergeCell ref="H223:J223"/>
-    <mergeCell ref="K223:L223"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="E224:G224"/>
-    <mergeCell ref="H224:J224"/>
-    <mergeCell ref="K224:L224"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="E225:G225"/>
-    <mergeCell ref="H225:J225"/>
-    <mergeCell ref="K225:L225"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="E226:G226"/>
-    <mergeCell ref="H226:J226"/>
-    <mergeCell ref="K226:L226"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="E227:G227"/>
-    <mergeCell ref="H227:J227"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="E228:G228"/>
-    <mergeCell ref="H228:J228"/>
-    <mergeCell ref="K228:L228"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
@@ -10482,14 +9987,394 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G3" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="31.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="15.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="12.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="29.25499916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="90"/>
+      <c r="G4" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="91"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="90"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="91"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
+    </row>
+    <row r="8" spans="1:12" ht="81.750000" customHeight="1">
+      <c r="A8" s="113" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="99"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
+    </row>
+    <row r="10" spans="1:12" ht="87.750000" customHeight="1">
+      <c r="A10" s="113" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="102"/>
+    </row>
+    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
+      <c r="A12" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="105"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="106"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="92"/>
+    </row>
+    <row r="15" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A15" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+    </row>
+    <row r="16" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A16" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="110" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+    </row>
+    <row r="17" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A17" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+    </row>
+    <row r="18" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A18" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+    </row>
+    <row r="19" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A19" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="108" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10498,14 +10383,2219 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G3" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="31.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="16.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="15.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="29.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="13.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="14.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="12.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="11.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="18.12999916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="D5" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43731</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" ht="95.250000" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" ht="84.000000" customHeight="1">
+      <c r="A10" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" ht="101.250000" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A15" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A16" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A17" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A18" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A19" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A20" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A21" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A22" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A23" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="55.000000" customHeight="1">
+      <c r="A24" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="13.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="31.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="18.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="29.25499916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A1" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="90"/>
+      <c r="G4" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="91"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="90"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="91"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
+    </row>
+    <row r="8" spans="1:12" ht="67.500000" customHeight="1">
+      <c r="A8" s="113" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="99"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="102"/>
+    </row>
+    <row r="10" spans="1:12" ht="90.000000" customHeight="1">
+      <c r="A10" s="97" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="99"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="102"/>
+    </row>
+    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
+      <c r="A12" s="114"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="105"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="106"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="92"/>
+    </row>
+    <row r="15" spans="1:12" ht="50.000000" customHeight="1">
+      <c r="A15" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+    </row>
+    <row r="16" spans="1:12" ht="50.000000" customHeight="1">
+      <c r="A16" s="115" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="108" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="15.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="12.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="16.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="31.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="18.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="29.25499916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="D5" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" ht="64.500000" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" ht="73.500000" customHeight="1">
+      <c r="A10" s="87" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="50.000000" customHeight="1">
+      <c r="A15" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="50.000000" customHeight="1">
+      <c r="A16" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="50.000000" customHeight="1">
+      <c r="A17" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="4" max="4" width="31.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="17.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="29.25499916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="D5" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" ht="94.500000" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" ht="102.000000" customHeight="1">
+      <c r="A10" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" ht="100.500000" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="50.000000" customHeight="1">
+      <c r="A15" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="50.000000" customHeight="1">
+      <c r="A16" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="50.000000" customHeight="1">
+      <c r="A17" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="108">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:L38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="4" max="4" width="31.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="16.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="29.25499916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.000000" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="D5" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" ht="97.500000" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" ht="78.000000" customHeight="1">
+      <c r="A10" s="87" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" ht="121.500000" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="50.000000" customHeight="1">
+      <c r="A15" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Text/03.테스트 시나리오/테스트 시나리오(영우).xlsx
+++ b/Text/03.테스트 시나리오/테스트 시나리오(영우).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="5" lowestEdited="4" rupBuild="8.1.852.35783"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TB-TS" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,15 @@
     <sheet name="BC-PD" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">a!$A$1:$L$134</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">my!$A$1:$L$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
   <si>
     <t>실제결과</t>
   </si>
@@ -1272,6 +1272,41 @@
 1. 시험 정보 : 시험에 대한 정보
 2. 경과시간 : 사용자가 시험을 치는대 경과한 시간
 4. 기출문제 문항 수 : 선택한 시험의 총 문항 수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 시험 선택 데이터가 DB 관리자를 통해 준비되었음을 가정
+</t>
+  </si>
+  <si>
+    <t>문제은행 &gt; 시험선택</t>
+  </si>
+  <si>
+    <t>문제은행 &gt; 시험치기</t>
+  </si>
+  <si>
+    <t>문제은행 &gt; 시험풀기</t>
+  </si>
+  <si>
+    <t>문제은행 &gt; 시험결과</t>
+  </si>
+  <si>
+    <t>문제은행 &gt; 정답해설</t>
+  </si>
+  <si>
+    <t>게시판 공통&gt; 게시판 쓰기</t>
+  </si>
+  <si>
+    <t>게시판 공통&gt; 게시판 답글</t>
+  </si>
+  <si>
+    <t>게시판 공통&gt; 게시판 수정</t>
+  </si>
+  <si>
+    <t>게시판 공통&gt; 게시판 삭제</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정</t>
   </si>
 </sst>
 </file>
@@ -2741,10 +2776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L232"/>
+  <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:L7"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2779,7 +2814,7 @@
     </row>
     <row r="2" spans="1:12" ht="30.750000" customHeight="1">
       <c r="A2" s="89" t="s">
-        <v>2</v>
+        <v>330</v>
       </c>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -2947,7 +2982,7 @@
     </row>
     <row r="12" spans="1:12" ht="63.000000" customHeight="1">
       <c r="A12" s="103" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="B12" s="104"/>
       <c r="C12" s="104"/>
@@ -5159,318 +5194,6 @@
       <c r="J208" s="22"/>
       <c r="K208" s="22"/>
       <c r="L208" s="22"/>
-    </row>
-    <row r="209">
-      <c r="B209" s="0"/>
-      <c r="C209" s="0"/>
-      <c r="D209" s="0"/>
-      <c r="E209" s="0"/>
-      <c r="F209" s="0"/>
-      <c r="G209" s="0"/>
-      <c r="H209" s="0"/>
-      <c r="I209" s="0"/>
-      <c r="J209" s="0"/>
-      <c r="K209" s="0"/>
-      <c r="L209" s="0"/>
-    </row>
-    <row r="210">
-      <c r="B210" s="0"/>
-      <c r="C210" s="0"/>
-      <c r="D210" s="0"/>
-      <c r="E210" s="0"/>
-      <c r="F210" s="0"/>
-      <c r="G210" s="0"/>
-      <c r="H210" s="0"/>
-      <c r="I210" s="0"/>
-      <c r="J210" s="0"/>
-      <c r="K210" s="0"/>
-      <c r="L210" s="0"/>
-    </row>
-    <row r="211">
-      <c r="B211" s="0"/>
-      <c r="C211" s="0"/>
-      <c r="D211" s="0"/>
-      <c r="E211" s="0"/>
-      <c r="F211" s="0"/>
-      <c r="G211" s="0"/>
-      <c r="H211" s="0"/>
-      <c r="I211" s="0"/>
-      <c r="J211" s="0"/>
-      <c r="K211" s="0"/>
-      <c r="L211" s="0"/>
-    </row>
-    <row r="212">
-      <c r="B212" s="0"/>
-      <c r="C212" s="0"/>
-      <c r="D212" s="0"/>
-      <c r="E212" s="0"/>
-      <c r="F212" s="0"/>
-      <c r="G212" s="0"/>
-      <c r="H212" s="0"/>
-      <c r="I212" s="0"/>
-      <c r="J212" s="0"/>
-      <c r="K212" s="0"/>
-      <c r="L212" s="0"/>
-    </row>
-    <row r="213">
-      <c r="B213" s="0"/>
-      <c r="C213" s="0"/>
-      <c r="D213" s="0"/>
-      <c r="E213" s="0"/>
-      <c r="F213" s="0"/>
-      <c r="G213" s="0"/>
-      <c r="H213" s="0"/>
-      <c r="I213" s="0"/>
-      <c r="J213" s="0"/>
-      <c r="K213" s="0"/>
-      <c r="L213" s="0"/>
-    </row>
-    <row r="214">
-      <c r="B214" s="0"/>
-      <c r="C214" s="0"/>
-      <c r="D214" s="0"/>
-      <c r="E214" s="0"/>
-      <c r="F214" s="0"/>
-      <c r="G214" s="0"/>
-      <c r="H214" s="0"/>
-      <c r="I214" s="0"/>
-      <c r="J214" s="0"/>
-      <c r="K214" s="0"/>
-      <c r="L214" s="0"/>
-    </row>
-    <row r="215">
-      <c r="B215" s="0"/>
-      <c r="C215" s="0"/>
-      <c r="D215" s="0"/>
-      <c r="E215" s="0"/>
-      <c r="F215" s="0"/>
-      <c r="G215" s="0"/>
-      <c r="H215" s="0"/>
-      <c r="I215" s="0"/>
-      <c r="J215" s="0"/>
-      <c r="K215" s="0"/>
-      <c r="L215" s="0"/>
-    </row>
-    <row r="216">
-      <c r="B216" s="0"/>
-      <c r="C216" s="0"/>
-      <c r="D216" s="0"/>
-      <c r="E216" s="0"/>
-      <c r="F216" s="0"/>
-      <c r="G216" s="0"/>
-      <c r="H216" s="0"/>
-      <c r="I216" s="0"/>
-      <c r="J216" s="0"/>
-      <c r="K216" s="0"/>
-      <c r="L216" s="0"/>
-    </row>
-    <row r="217">
-      <c r="B217" s="0"/>
-      <c r="C217" s="0"/>
-      <c r="D217" s="0"/>
-      <c r="E217" s="0"/>
-      <c r="F217" s="0"/>
-      <c r="G217" s="0"/>
-      <c r="H217" s="0"/>
-      <c r="I217" s="0"/>
-      <c r="J217" s="0"/>
-      <c r="K217" s="0"/>
-      <c r="L217" s="0"/>
-    </row>
-    <row r="218">
-      <c r="B218" s="0"/>
-      <c r="C218" s="0"/>
-      <c r="D218" s="0"/>
-      <c r="E218" s="0"/>
-      <c r="F218" s="0"/>
-      <c r="G218" s="0"/>
-      <c r="H218" s="0"/>
-      <c r="I218" s="0"/>
-      <c r="J218" s="0"/>
-      <c r="K218" s="0"/>
-      <c r="L218" s="0"/>
-    </row>
-    <row r="219">
-      <c r="B219" s="0"/>
-      <c r="C219" s="0"/>
-      <c r="D219" s="0"/>
-      <c r="E219" s="0"/>
-      <c r="F219" s="0"/>
-      <c r="G219" s="0"/>
-      <c r="H219" s="0"/>
-      <c r="I219" s="0"/>
-      <c r="J219" s="0"/>
-      <c r="K219" s="0"/>
-      <c r="L219" s="0"/>
-    </row>
-    <row r="220">
-      <c r="B220" s="0"/>
-      <c r="C220" s="0"/>
-      <c r="D220" s="0"/>
-      <c r="E220" s="0"/>
-      <c r="F220" s="0"/>
-      <c r="G220" s="0"/>
-      <c r="H220" s="0"/>
-      <c r="I220" s="0"/>
-      <c r="J220" s="0"/>
-      <c r="K220" s="0"/>
-      <c r="L220" s="0"/>
-    </row>
-    <row r="221">
-      <c r="B221" s="0"/>
-      <c r="C221" s="0"/>
-      <c r="D221" s="0"/>
-      <c r="E221" s="0"/>
-      <c r="F221" s="0"/>
-      <c r="G221" s="0"/>
-      <c r="H221" s="0"/>
-      <c r="I221" s="0"/>
-      <c r="J221" s="0"/>
-      <c r="K221" s="0"/>
-      <c r="L221" s="0"/>
-    </row>
-    <row r="222">
-      <c r="B222" s="0"/>
-      <c r="C222" s="0"/>
-      <c r="D222" s="0"/>
-      <c r="E222" s="0"/>
-      <c r="F222" s="0"/>
-      <c r="G222" s="0"/>
-      <c r="H222" s="0"/>
-      <c r="I222" s="0"/>
-      <c r="J222" s="0"/>
-      <c r="K222" s="0"/>
-      <c r="L222" s="0"/>
-    </row>
-    <row r="223">
-      <c r="B223" s="0"/>
-      <c r="C223" s="0"/>
-      <c r="D223" s="0"/>
-      <c r="E223" s="0"/>
-      <c r="F223" s="0"/>
-      <c r="G223" s="0"/>
-      <c r="H223" s="0"/>
-      <c r="I223" s="0"/>
-      <c r="J223" s="0"/>
-      <c r="K223" s="0"/>
-      <c r="L223" s="0"/>
-    </row>
-    <row r="224">
-      <c r="B224" s="0"/>
-      <c r="C224" s="0"/>
-      <c r="D224" s="0"/>
-      <c r="E224" s="0"/>
-      <c r="F224" s="0"/>
-      <c r="G224" s="0"/>
-      <c r="H224" s="0"/>
-      <c r="I224" s="0"/>
-      <c r="J224" s="0"/>
-      <c r="K224" s="0"/>
-      <c r="L224" s="0"/>
-    </row>
-    <row r="225">
-      <c r="B225" s="0"/>
-      <c r="C225" s="0"/>
-      <c r="D225" s="0"/>
-      <c r="E225" s="0"/>
-      <c r="F225" s="0"/>
-      <c r="G225" s="0"/>
-      <c r="H225" s="0"/>
-      <c r="I225" s="0"/>
-      <c r="J225" s="0"/>
-      <c r="K225" s="0"/>
-      <c r="L225" s="0"/>
-    </row>
-    <row r="226">
-      <c r="B226" s="0"/>
-      <c r="C226" s="0"/>
-      <c r="D226" s="0"/>
-      <c r="E226" s="0"/>
-      <c r="F226" s="0"/>
-      <c r="G226" s="0"/>
-      <c r="H226" s="0"/>
-      <c r="I226" s="0"/>
-      <c r="J226" s="0"/>
-      <c r="K226" s="0"/>
-      <c r="L226" s="0"/>
-    </row>
-    <row r="227">
-      <c r="B227" s="0"/>
-      <c r="C227" s="0"/>
-      <c r="D227" s="0"/>
-      <c r="E227" s="0"/>
-      <c r="F227" s="0"/>
-      <c r="G227" s="0"/>
-      <c r="H227" s="0"/>
-      <c r="I227" s="0"/>
-      <c r="J227" s="0"/>
-      <c r="K227" s="0"/>
-      <c r="L227" s="0"/>
-    </row>
-    <row r="228">
-      <c r="B228" s="0"/>
-      <c r="C228" s="0"/>
-      <c r="D228" s="0"/>
-      <c r="E228" s="0"/>
-      <c r="F228" s="0"/>
-      <c r="G228" s="0"/>
-      <c r="H228" s="0"/>
-      <c r="I228" s="0"/>
-      <c r="J228" s="0"/>
-      <c r="K228" s="0"/>
-      <c r="L228" s="0"/>
-    </row>
-    <row r="229">
-      <c r="B229" s="0"/>
-      <c r="C229" s="0"/>
-      <c r="D229" s="0"/>
-      <c r="E229" s="0"/>
-      <c r="F229" s="0"/>
-      <c r="G229" s="0"/>
-      <c r="H229" s="0"/>
-      <c r="I229" s="0"/>
-      <c r="J229" s="0"/>
-      <c r="K229" s="0"/>
-      <c r="L229" s="0"/>
-    </row>
-    <row r="230">
-      <c r="B230" s="0"/>
-      <c r="C230" s="0"/>
-      <c r="D230" s="0"/>
-      <c r="E230" s="0"/>
-      <c r="F230" s="0"/>
-      <c r="G230" s="0"/>
-      <c r="H230" s="0"/>
-      <c r="I230" s="0"/>
-      <c r="J230" s="0"/>
-      <c r="K230" s="0"/>
-      <c r="L230" s="0"/>
-    </row>
-    <row r="231">
-      <c r="B231" s="0"/>
-      <c r="C231" s="0"/>
-      <c r="D231" s="0"/>
-      <c r="E231" s="0"/>
-      <c r="F231" s="0"/>
-      <c r="G231" s="0"/>
-      <c r="H231" s="0"/>
-      <c r="I231" s="0"/>
-      <c r="J231" s="0"/>
-      <c r="K231" s="0"/>
-      <c r="L231" s="0"/>
-    </row>
-    <row r="232">
-      <c r="B232" s="0"/>
-      <c r="C232" s="0"/>
-      <c r="D232" s="0"/>
-      <c r="E232" s="0"/>
-      <c r="F232" s="0"/>
-      <c r="G232" s="0"/>
-      <c r="H232" s="0"/>
-      <c r="I232" s="0"/>
-      <c r="J232" s="0"/>
-      <c r="K232" s="0"/>
-      <c r="L232" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="656">
@@ -6139,10 +5862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L225"/>
+  <dimension ref="A1:L213"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -6177,7 +5900,7 @@
     </row>
     <row r="2" spans="1:12" ht="30.750000" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6310,7 +6033,7 @@
     </row>
     <row r="12" spans="1:12" ht="62.250000" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -9011,162 +8734,6 @@
       <c r="J213" s="22"/>
       <c r="K213" s="22"/>
       <c r="L213" s="22"/>
-    </row>
-    <row r="214" spans="2:12">
-      <c r="B214" s="0"/>
-      <c r="C214" s="0"/>
-      <c r="D214" s="0"/>
-      <c r="E214" s="0"/>
-      <c r="F214" s="0"/>
-      <c r="G214" s="0"/>
-      <c r="H214" s="0"/>
-      <c r="I214" s="0"/>
-      <c r="J214" s="0"/>
-      <c r="K214" s="0"/>
-      <c r="L214" s="0"/>
-    </row>
-    <row r="215" spans="2:12">
-      <c r="B215" s="0"/>
-      <c r="C215" s="0"/>
-      <c r="D215" s="0"/>
-      <c r="E215" s="0"/>
-      <c r="F215" s="0"/>
-      <c r="G215" s="0"/>
-      <c r="H215" s="0"/>
-      <c r="I215" s="0"/>
-      <c r="J215" s="0"/>
-      <c r="K215" s="0"/>
-      <c r="L215" s="0"/>
-    </row>
-    <row r="216" spans="2:12">
-      <c r="B216" s="0"/>
-      <c r="C216" s="0"/>
-      <c r="D216" s="0"/>
-      <c r="E216" s="0"/>
-      <c r="F216" s="0"/>
-      <c r="G216" s="0"/>
-      <c r="H216" s="0"/>
-      <c r="I216" s="0"/>
-      <c r="J216" s="0"/>
-      <c r="K216" s="0"/>
-      <c r="L216" s="0"/>
-    </row>
-    <row r="217" spans="2:12">
-      <c r="B217" s="0"/>
-      <c r="C217" s="0"/>
-      <c r="D217" s="0"/>
-      <c r="E217" s="0"/>
-      <c r="F217" s="0"/>
-      <c r="G217" s="0"/>
-      <c r="H217" s="0"/>
-      <c r="I217" s="0"/>
-      <c r="J217" s="0"/>
-      <c r="K217" s="0"/>
-      <c r="L217" s="0"/>
-    </row>
-    <row r="218" spans="2:12">
-      <c r="B218" s="0"/>
-      <c r="C218" s="0"/>
-      <c r="D218" s="0"/>
-      <c r="E218" s="0"/>
-      <c r="F218" s="0"/>
-      <c r="G218" s="0"/>
-      <c r="H218" s="0"/>
-      <c r="I218" s="0"/>
-      <c r="J218" s="0"/>
-      <c r="K218" s="0"/>
-      <c r="L218" s="0"/>
-    </row>
-    <row r="219" spans="2:12">
-      <c r="B219" s="0"/>
-      <c r="C219" s="0"/>
-      <c r="D219" s="0"/>
-      <c r="E219" s="0"/>
-      <c r="F219" s="0"/>
-      <c r="G219" s="0"/>
-      <c r="H219" s="0"/>
-      <c r="I219" s="0"/>
-      <c r="J219" s="0"/>
-      <c r="K219" s="0"/>
-      <c r="L219" s="0"/>
-    </row>
-    <row r="220" spans="2:12">
-      <c r="B220" s="0"/>
-      <c r="C220" s="0"/>
-      <c r="D220" s="0"/>
-      <c r="E220" s="0"/>
-      <c r="F220" s="0"/>
-      <c r="G220" s="0"/>
-      <c r="H220" s="0"/>
-      <c r="I220" s="0"/>
-      <c r="J220" s="0"/>
-      <c r="K220" s="0"/>
-      <c r="L220" s="0"/>
-    </row>
-    <row r="221" spans="2:12">
-      <c r="B221" s="0"/>
-      <c r="C221" s="0"/>
-      <c r="D221" s="0"/>
-      <c r="E221" s="0"/>
-      <c r="F221" s="0"/>
-      <c r="G221" s="0"/>
-      <c r="H221" s="0"/>
-      <c r="I221" s="0"/>
-      <c r="J221" s="0"/>
-      <c r="K221" s="0"/>
-      <c r="L221" s="0"/>
-    </row>
-    <row r="222" spans="2:12">
-      <c r="B222" s="0"/>
-      <c r="C222" s="0"/>
-      <c r="D222" s="0"/>
-      <c r="E222" s="0"/>
-      <c r="F222" s="0"/>
-      <c r="G222" s="0"/>
-      <c r="H222" s="0"/>
-      <c r="I222" s="0"/>
-      <c r="J222" s="0"/>
-      <c r="K222" s="0"/>
-      <c r="L222" s="0"/>
-    </row>
-    <row r="223" spans="2:12">
-      <c r="B223" s="0"/>
-      <c r="C223" s="0"/>
-      <c r="D223" s="0"/>
-      <c r="E223" s="0"/>
-      <c r="F223" s="0"/>
-      <c r="G223" s="0"/>
-      <c r="H223" s="0"/>
-      <c r="I223" s="0"/>
-      <c r="J223" s="0"/>
-      <c r="K223" s="0"/>
-      <c r="L223" s="0"/>
-    </row>
-    <row r="224" spans="2:12">
-      <c r="B224" s="0"/>
-      <c r="C224" s="0"/>
-      <c r="D224" s="0"/>
-      <c r="E224" s="0"/>
-      <c r="F224" s="0"/>
-      <c r="G224" s="0"/>
-      <c r="H224" s="0"/>
-      <c r="I224" s="0"/>
-      <c r="J224" s="0"/>
-      <c r="K224" s="0"/>
-      <c r="L224" s="0"/>
-    </row>
-    <row r="225" spans="2:12">
-      <c r="B225" s="0"/>
-      <c r="C225" s="0"/>
-      <c r="D225" s="0"/>
-      <c r="E225" s="0"/>
-      <c r="F225" s="0"/>
-      <c r="G225" s="0"/>
-      <c r="H225" s="0"/>
-      <c r="I225" s="0"/>
-      <c r="J225" s="0"/>
-      <c r="K225" s="0"/>
-      <c r="L225" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="808">
@@ -9990,7 +9557,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+      <selection activeCell="A15" sqref="A15:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10020,7 +9587,7 @@
     </row>
     <row r="2" spans="1:12" ht="30.000000" customHeight="1">
       <c r="A2" s="89" t="s">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -10385,8 +9952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10421,7 +9988,7 @@
     </row>
     <row r="2" spans="1:12" ht="30.000000" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>2</v>
+        <v>334</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -10877,8 +10444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10907,7 +10474,7 @@
     </row>
     <row r="2" spans="1:12" ht="30.000000" customHeight="1">
       <c r="A2" s="89" t="s">
-        <v>2</v>
+        <v>335</v>
       </c>
       <c r="B2" s="89"/>
       <c r="C2" s="89"/>
@@ -11199,7 +10766,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+      <selection activeCell="A15" sqref="A15:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11230,7 +10797,7 @@
     </row>
     <row r="2" spans="1:12" ht="30.000000" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>2</v>
+        <v>336</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -11518,8 +11085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11547,7 +11114,7 @@
     </row>
     <row r="2" spans="1:12" ht="30.000000" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>2</v>
+        <v>337</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -12339,8 +11906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -12368,7 +11935,7 @@
     </row>
     <row r="2" spans="1:12" ht="30.000000" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>

--- a/Text/03.테스트 시나리오/테스트 시나리오(영우).xlsx
+++ b/Text/03.테스트 시나리오/테스트 시나리오(영우).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TB-TS" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="BC-PW" sheetId="5" r:id="rId5"/>
     <sheet name="BC-PR" sheetId="6" r:id="rId6"/>
     <sheet name="BC-PM" sheetId="7" r:id="rId7"/>
-    <sheet name="BC-PD" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId8"/>
+    <sheet name="BC-PD" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="2029">
   <si>
     <t>실제결과</t>
   </si>
@@ -1307,6 +1308,5074 @@
   </si>
   <si>
     <t>- 테스트 서버에 이미 선택한 시험에 대한 데이터가 DB관리자를 통해서 준비되었음을 가정</t>
+  </si>
+  <si>
+    <t>- 테스트 서버에 이미 삭제할 게시글이 DB관리자를 통해 준비되었음을 가정
+1. 게시글 번호 : 삭제할 게시글의 번호</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:51:이름 없음:교전님이 비전님을 초대했습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:51:교전:이제 네분 남았네요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:51:이름 없음:비전님이 추교학님을 초대했습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:51:이름 없음:비전님이 네비님을 초대했습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:52:교전:이제 한분 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:52:이름 없음:비전님이 eugenie님을 초대했습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:52:교전:이제 한분만 남았네요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:52:교전:ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:53:교전:의외로 한자리가 오래 남네요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:53:이름 없음:비전님이 월든님을 초대했습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:53:비전:마지막 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:53:교전:오옹</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:53:교전:월든님</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:53:교전:마지막에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:53:교전:ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:53:월든:안녕하세요ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:53:교전:월든님으로 마감 끝 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:53:교전:네 어서오세요 월든님 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:53:비전:막차 탑승 성공하셧네요 월든님 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:54:우사기:와 칼같은 세이브군요ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:54:교전:ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:54:월든:ㅎㅎㅎㅎ 운이 좋았습니다ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:54:교전:로또 사셔요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:54:eugenie:크 럭키다 럭키</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:54:교전:앞으로 주말에...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:54:월든:ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:54:교전:&lt;대인관계 센스 좋아지는 명상&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:54:교전:을 시리즈로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:54:교전:특강해드릴꺼에요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:55:교전:이론적으론 좀 복잡한 영역이지만</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:55:교전:재밌게 해볼수 있는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:55:월든:넵</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:55:교전:간단한 훈련법과 핵심만</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:55:비전:오호..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:55:교전:추려서 배우는 형태로 해볼꺼에요.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:55:교전:다들 대인관계 센스 + 업무머리</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:55:교전:등과 관련해서 고민들이 많으신거 같더라구요.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:55:교전:ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:55:교전:- 다른 사람의 마음을 쉽게 파악하지 못한다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:55:교전:- 돌아가는 분위기 파악이나 상황파악에 애를 먹는다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:56:교전:- 뭔가 복잡한 멀티 상황에서 집중을 못하고 산만하거나 실수가 잦다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:56:교전:- 그래서 다른 사람과 관계할때 긴장과 신경쓰임이 심해서 피곤하다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:- 준비를 많이하고 이래저래 생각은 많으나 현장상황이 달라지면  쉽게 멘붕이 온다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:대략 이런 문제들에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:실제적인 도움이되는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:강의이면서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:그와 동시에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:매번 강의때마다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:실제로 연습해볼수 있는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:훈련법을 소개받고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:그걸 좀 재미난 방식으로 해볼꺼에요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:결국</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:드레곤볼 처럼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:이 특강 시리즈를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:다 모아야 하시는 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:어쨋든</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:비전:ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:57:교전:첫번째 드레곤볼은 모으셧으니</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:교전:ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:교전:이거 나눠주면서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:교전:나중에 생기면 좀 달라고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:교전:동료랑 품앗이 해보셔요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:learn 배움 학인:오오오...!</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:비전:옙</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:월든:ㅋㅋㅋㅋ넵</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:교전:자 첫째...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:교전:강의 주제 핵심은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:교전:&lt;왜 평소 생각은 많은데, 필요한때 바로바로 생각이 안나거나, 참신한 생각이 안날까&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:교전:그걸 어케 해결하나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:58:교전:에 해당하는 강의입니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:59:교전:가장 현실에서 대표적인</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:59:교전:상황이라면..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:59:교전:실컷 프리젠 테이션 준비해서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:59:교전:이런 자료 띄우고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:59:교전:이리 말하고 저리 발표하다 결론내자</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:59:교전:꼼꼼히 자료 챙기고 외워서 가도?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:59:교전:막상 현장에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:59:교전:참여자가 예기치 못한 부분에 대한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:59:교전:질문을 하면?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 9:59:교전:뭔가 순간적으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:틱.....하는 느낌과 함께</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:당장 무슨 말을 해야 할지부터감</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:막막하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:뭔가 어버어버 대는 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:그런 현상이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:거기에 해당되고,,</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:대인관계나 화술적으로는...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:나름</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:&lt;웃겨 보고 싶다&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:라는 가열찬 결심을 하고 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:이래저래</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:라디오 웃긴 사연</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:성대모사</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:주변에서 들은 웃긴 이야기</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:인스타나 유트브에서 본</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:00:교전:재미난 내용들을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:기억해놧다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:다른 사람한테 써먹어보기도 하는데...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:그러다 때론</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:나름 먹혀서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:다들 웃어줘서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:기분 좋을때도 잇긴 한데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:정작 주변에서 인기 있는 사람들은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:그딴 준비같은거 하나도 안해도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:다른 사람들과 이야기하는 중에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:툭툭 말 따먹듯이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:숟가락 얹듯이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:말 몇마디 하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:의견 턱 건네면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:빵 터지며 다들 웃고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:01:교전:센스 있다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:유머 감각이 있다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:매력있다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:기발하다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:이런 소리를 듣는 이들에게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:밀려서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:늘 뭔가 웃기기 위해</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:늘 잼난 이야기나 줃어모으고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:개인기나 골방에서 연습해야 하는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:나름 씁쓸함을 가진 이라면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:난 그럼 왜 그런걸까...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:에 해당되는 이유와 해법</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:을 오늘 꺼내볼까 합니다 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:02:교전:앞으로 이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:센스 특강 관련해서의</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:큰 핵심은 전부다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:&lt;인지 능력&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:&lt;그중에서도 집중능력&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:과 연관되는 부분이라고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:추교학:오옹</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:이해하시면 됩니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:월든:아하</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:일단 여기서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:매우 현실적인</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:판단을 가지시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:집중력은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:크게...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:세가지 정도로 나뉩니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:03:교전:- 고정</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:- 이동</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:- 무시</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:첫번째인 고정은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:말그대로 어떤 하나의 대상에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:정신을 집중하여</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:오랜시간동안</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:그 대상에 집중몰입하는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:능력을뜻합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:가장 기본적인</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:능력인데....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:상명학 학인분들중</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:이 부분에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:교전:산만함이 평균이상</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:04:우사기:개그욕심ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:이신분들이 꽤 됩니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:두번째인 이동은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:인지의 촛점은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:딱 하나 뿐이며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:아무리 여러개의 것들을 동시다발적으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:인지하며 수행한다 해도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:즉, 자동차 운전이라고 치자면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:전방주시</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:깜빡이 키기</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:네비게이터 확인</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:악셀레이터아 브레이크 조작</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:주변 차랑 흐름 파악</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:등의 정말 수십가지 이상의 것들</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:동시다발적으로 인지해야 하지만</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:05:교전:원래 인간은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:한번에 한개밖에 인지하지 못합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:이건 개인차와 별개로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:인간이면 동일합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:고로 얼핏보기엔</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:멀티...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:즉 동시에 한꺼번에 여러개를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:모두 집중하는것 같지만</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:실제로는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:에이에서 비로 비에서 씨로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:다시 에이로 디로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:이런식으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:매우 빠르게 인지의 촛점을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:순차적으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:적절한 상황적 맥락과</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:시기적 타이밍에 맞추어</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:06:교전:인지의 촛점을 이동시키는것이라 하겠습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:고로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:필요한 대상으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:필요한 때에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:인지의 촛점을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:이동.........시키는 능력이 떨어지면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:멀티...적 부분에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:매우 낮은 능력을 가지게 됩니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:세번째는..무시 입니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:명칭에서부터</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:바로 이해되듯이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:추교학:아하</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:어떤 특정ㅇ한 대상에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:집중을 기울이는것이 아닌</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:코끼리를 생각하지마</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:처럼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:특정한 대상</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:그중에서도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:07:교전:거슬리고 신경스이고 불편하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:자꾸만 눈에 보이고 인지되는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:그런걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:계속은 아니더라도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:이정이상</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:일정 강도 일정 시간이상</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:크게 집중도 보내지 않곰</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:무시하는 능력을 뜻합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:집중은 크게 이 세가지 영역으로 나뉘나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:실제로 그 하위 카테고리로 들어가면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:상황상황마다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:좀더 매우 복잡한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:집중력 세부 능력이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:존재합니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:앞으로 그걸 쭈욱</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:08:교전:매번 강의때마다 다룰텐데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:만약 그 영역이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:총 열개라고 치죠...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:이론상으론</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:그 열개를 다 잘하는게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:가장 좋겟죠..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:그러나 우린 여기서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:현실적 한계와 효율을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:살펴야 합니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:과거의 과학과 지금의 과학</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:그중에서도 심리학과 정신과학 분야에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:크게 달라진 이론중 하나가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:인간의 기능이 과연 타고나느냐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:학습으로 개발되느냐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:09:교전:하는 이론인데...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:지금은 현대의 과학도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:타고나는 부분이 매우 크다는쪽으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:결론내리고 있습니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:고로 어쩌면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:그 열개의 영역중</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:한두개의 영역은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:아무리 노력해도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:미세한 정도 이상으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:좋아지지 않을수도 있습니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:그걸 이해하고 인정하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:받아들이는 선에서 이걸 출발하시는게 좋습니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:다만 그건</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:비전:네.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:안되는 사람은 안되는거다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:추교학:으으 ㅜㅜ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:라는 비관론이 아니고...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:물리적 시간과 노력이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:10:교전:누구다 같은 이상....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:이왕이면 내 돈, 시간, 노력을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:발전 가능성의 효용이 높은쪽에다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:투자하는게 효율적이라는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:너무도 상식적인 접근을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:이해하기 위해서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:말씀드린겁니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:그러니</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:아 이게 안되 으윽</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:하는 비관보다는..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:열개의 영역중</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:아 첫번째는 투자대비 가성비가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:떨어지고 재미도 없고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:하기도 싫고 잘 되지도 않는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:세번째는 나름 발전도 잇고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:하기 싫음도 적고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:11:교전:나름 하는 재미도 있네</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:하면...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:이왕이면 거기에 투자하는게 낫다는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:뜻입니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:시험 문제 푸는것과 같습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:잘 안풀리고 당장 생각안나는 문제는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:일단 패스하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:넘어가서 한정된 시험풀이 시간을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:풀리는 문제를 푸는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:집중하는것과 같은 이치입니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:그리 할만한거 건드릴만한거 다 그리한후에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:그럼 이제</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:저번에 잘 안됬던것도 한번</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:건ㄷ느려볼까..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:12:교전:하고 넘어오시는게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:교전:속편하고 스트레스도 적답니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:교전:그러니 즐겁게 하세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:교전:이번 특겅시리즈때는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:교전:그래서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:교전:그래서제목은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:교전:&lt;명상&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:교전:이지만 전부다 지루하지 않고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:교전:재밋게 간단히 할수 있는 방식으로만</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:교전:할겁니다....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:learn 배움 학인:우와</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:교전:오늘은 두가지를 알려드릴꺼에요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:13:월든:오오 ㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:14:교전:상명학은 매우 고도로 발달된</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:14:교전:명상 체계를 가지고 있고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:14:교전:과거에 상명학을 전수할</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:14:교전:전인을 뽑을때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:14:교전:이걸 일종의 제자의 싹수 파악의</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:14:교전:테스트로도 꽤 많이 썼습니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:14:교전:실제로 제가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:14:교전:지금의 제자들을 데리고...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:14:교전:명상수업때 늘 시키는거지만</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:14:교전:너무너무너무너무 쉬운 레벨임에도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:15:교전:대략 수업할때마다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:15:교전:최소 삼십퍼센트 이상</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:15:교전:바로 탈락하는 영역이기도 합니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:15:비전:움직이지 않기..ㅠ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:15:교전:과거에 삼영학에선 이걸 어찌 테스트 했냐...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:15:교전:제자와</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:15:교전:스승이 갇이 길을 걷다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:15:교전:사부가 갑자기 말하죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:'잠깐만 이거 무슨 소리지?'</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:그리고는 딱 멈춰서서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:무슨 소리를 듣는척</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:가만히 있는거죠..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:그때...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:삼분의 일은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:스승의 그런 주의 집중 모션</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:무슨소리지 하는 말</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:그것과 함게 딱 멈춰서는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:뉘앙스적</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:연응에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:작동하지 않습니다 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:즉,,</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:네?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:무슨 소리요/</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:전 안들리는데요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:16:교전:이딴식으로 게속 주절거리거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:17:교전:이리러지 게속 움직이거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:17:추교학:아..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:17:교전:여기저기 고개를 돌려서 살피거나 합니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:17:교전:이게 대인관계적 센스로도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:17:교전:매우매우매우매우매우매우매우매우</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:17:교전:중요한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:17:교전:중요 측심 반응중</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:17:교전:하나라는걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:17:교전:그래서 평생토록 짐작도 못합니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:17:교전:월드 포커 챔피언 시리즈가....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:17:교전:매해 열리고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:18:교전:엄청난 상금이 걸린 게임들이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:18:교전:펼쳐지지만</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:18:교전:대부분의 겜블러는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:18:교전:포커 페이스에 능합니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:18:교전:좋은패, 낮은패</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:18:교전:진실, 거짓에서의</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:18:교전:표정반응이 거의 없습니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:18:교전:심지어</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:18:교전:그걸 손짓이나 발짓 몸짓등의</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:18:교전:바디랭귀지로도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:18:교전:잘 드러내지 않습니다....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:19:교전:그때 가장 중요한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:19:교전:판단 기준이 뭐냐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:19:교전:정동...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:19:교전:입니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:19:교전:정지와 움직임...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:19:교전:어던 동작을 하고 있다가.....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:19:추교학:아하</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:19:교전:특정 질문을 받거나 무엇을 포착햇을때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:19:교전:마음에 타격을 받거나 흔들리거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:19:교전:끌리거나 몰입되면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:19:교전:저절로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:정지 동작이 일어나니까요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:그걸 알면..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:어느 타이밍에 그게 일어났느냐를 가지곶</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:진실 거짓을 판단하기도 하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:뭔가 내가 판단한 어떤 상황추론이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:틀렷다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:라는 느낌도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:가질수 잇게 됩니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:같이 점식 회식가서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:탕수육 시키고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:그때 당신이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:자 고민이 남았네요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:찍먹파냐 부먹파냐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:저는 찍먹파인데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:어떡할.....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:20:교전:하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:소스를 부을까 말까</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:장난질 치면서 모션취할때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:그런 당신의 동작과</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:주변 사람들의 움직임이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:연동되지 않고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:그 말 앞뒤로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:뭔가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:턱...하고 멈춰지는 느낑믈</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:받으면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:우린 바로 알게 됩니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:어..이건뭐지...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:내가 뭔가 분위기 파악을 못하고 잇다는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:즉 내가 틀렷다는 분위기네?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:하고 다시금 고개를 들어</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:뭔일 있엇나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:하고 다른 사람들이나 상황을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:쳐다보게 됩니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:21:교전:근데 이 정지 반응이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:온전히 잘 일어나지 않는 사랃믈은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:자신의 센서를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:타인의 센서와</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:일치 시키지 못하기에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:연동성을 통한 판단</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:즉 내가 다른 사람들과 반응을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:비슷하게 조율해놧으니</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:내게 이질적 반응이 지금</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:정지 개념으로 생겻다면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:다른 사람들 마음안에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:뭔가 이질적 반응이 생겻다는건데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:교전:식으로....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:22:추교학:오오</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:알아채는걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:잘 못한느겁니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:오늘 사무실 왜 그래</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:무슨일 있어?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:라고 주변에게 속삭이며 물어볼땡</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:우리가 육감적으로 느끼는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:분위기 파악이라는게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:이름 없음:카로하니님이 이 채팅방의 대화내용 보관기간을 1년으로 변경했습니다. 지금부터 도착하는 메시지에 적용됩니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:바로 그런겁니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:정동..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:정지와 움직임의 이질감</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:그래서 겜블러 같은 경우는..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:자신이 칩을 손으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:들엇다 놧다 하면서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:동작을 하고 잇을대</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:상대가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:올인</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:그리 레이스를 하면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:23:교전:일부러라도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:하던 동작을 안멈춥니다 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:그냥 계속 하면서 듣습니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:왜?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:역으로 정지 신호를 통한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:감잡기를 주지 않기 위해서죠...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:결국 포커페이스는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:정지와 움직임의 신호를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:기반으로 할수밖에 없습니다....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:만약 나도 모르게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:상대가 올인할때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:헉 하고...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:정지햇다면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:24:교전:차라리 그 상태로 정지한채로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:그냥 게속 잇는게 낫습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:수습하는게 오히려 다 들통하는겁니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:어쨋든...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:이 정지는 그만큼 대단히 중요하며..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:무엇보다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:그 정지 자체가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:집중의 기본인....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:고정...집중능력의 근간이 되기</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:때문입니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:이건 글로 치면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:가나다라고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:수학으로 치면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:더하기 뺄셈에 가까운 개념이라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:이걸 그냥 방치한채</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:다른 집중영역으로 넘어가면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:전부 삽질이 됩니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:근데...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:25:교전:놀랍게도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:이게 거의 자동적 반발작용으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:강박되어 있는 분들이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:꽤 많다는겁니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:인체가 필요한 상황때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:일으키는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:정지..란</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:일종의 집중형태라는걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:지금 배웠습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:우사기:네ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:그런데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:그건 일종의 불안도 높아짐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:긴장도 높아짐의 상태를 의미합니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:거기에 감정적 통제의 어려움</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:컴플렉스...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:26:교전:압박당하고 구속당하는 질식감</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:이런것들이 결합되면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:자신도 모르게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:그런 고정 집중이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:&lt;신체의 거부반응&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:으로 자리잡히기도 합니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:아마 여러분들이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:추교학:아..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:이번 훈련을 통해서도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:비일비재하게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:경험할겁니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:하루에 한번정도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:뜬금없을때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:장난처럼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:27:교전:자기 혼자서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:28:교전:얼음땡 놀이를 하는겁니다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:28:교전:에를 들면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:28:교전:지금 제가 컴퓨터를 하고 있는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:28:교전:옆에서 뭔가 부우웅</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:28:교전:하는 소리가 들렷어요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:28:교전:그럼 그때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:28:교전:일순간에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:28:교전:딱..모든걸 멈추고...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:28:교전:그 소리에 집중해보는겁니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:28:교전:그때 규칙이 있어요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:28:교전:- 주섬주섬 여기저기 순차적으로 멈추면 안된다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:29:교전:- 단번에 빡 모든걸 한번에 동작 정지시켜라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:29:교전:- 움직이고 잇엇던 먹고 잇엇던 뭘하던 맥락 다 무시하고 무조건 인위적으로 바로 멈춰라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:29:교전:- 단 하나 허용되는건 눈알의 움직임이다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:29:월든:오호..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:29:교전:- 그러나 눈을 깜빡이거나 눈알을 돌리는걸 일부러 움직이란 뜻이 아니고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:29:교전:그건 그냥 어떤 생각때문에 저절로 움직이며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:그건 자연스러운 현상이니 그래도 된다..는 뜻입니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:그리고 이걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:처음부터</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:장시간 하려고 들지 마세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:잘 되지도 않고 재미도 없습니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:그리고...뭔가 각잡고 제대로된 명상하듯이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:충분히 그럴만한 상황</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:충분히 하기쉬운 상황에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:하지 마시고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:오히려 골때리는 상황에서 차라리 하세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:아까 저처럼...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:뭔가 내 주의를 끄는 소리가 들렷다거나..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:뭔가 특이한 감각이 느껴졋다거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:30:교전:식으로 자연발생적으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:내게 집중 호기심을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:일으키는게 잇거나..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:할때 해보시거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:신발 신다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:팬티 입다가 중간에 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:밥 먹고 막 삼키려다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:추교학:악ㄲㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:등등...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:월든:ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:우사기:아하ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:그런식으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:뭔가 이런 상황에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:갑자기 멈춘다는게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:너무도 황당하고 어색하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:어처구니 없고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:부자연 스러운 상황에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:해보세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:망냑 이게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:혼자 하는게 아니고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:얼음 땡 놀이로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:교전:틀리면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:31:우사기:우와 재밋을것같은 기대가+_+</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:만원빵 게임하는거라면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:여러분들도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:다르 사람들이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:정말 하기 힘든때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:시킬꺼 아니에요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:그러니 그러식으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:자신한테 자기를 골려먹듯이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:해보시는거에요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:그러니 그런 잠깐의 시도를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:재밋게 즐기는 정도로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:가볍게 접근하시고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:너무 오래 얼음</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:시간을 유지하지 마세요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:이게 쉬울꺼 같지만</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:생각보다 어려운게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:해보시다보면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:깜짝 놀라거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:좀 슬퍼지는 분들도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:32:교전:게실꺼에요.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:분명히 너무 쉽고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:저위에 규칙도 다 정해져있는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:자기도 모르게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:숨을 크게 몰아쉰다거나.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:으음..흐음. 그러면서 헛기침을 하거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:침을 삼킨다거나.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:몸을 움직인다거나...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:뭔가 입을 벌린다거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:몸을 꼼지락 거리는등</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:어처구니 없게도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:그런 정지 몰입을 일으키기만 하면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:잠시도 못참고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:33:교전:마치 내 몸이 내 몸이 아닌것마냥</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:그런 정지 몰입 상태를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:매우 불안한 긴장상태로 인식하여</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:면역 거부반응 일으키는것마냥</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:내가 그리 저절로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:나도 모르게 해버리는걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:다양한 현상으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:발견하게 되실겁니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:그러니 그런게 발생하면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:자동..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:얼음 -&gt; 땡</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:으로 풀리는겁니다.ㅣ..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:잘되도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:잠깐정도만 하시고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:추교학:옙</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:마세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:너무 억지로 해서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:뇌에 정지라는 자체를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:34:교전:불편한 이미지로 각인시키지 마시고요....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:우사기:옙</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:제가 십년넘게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:명상 시간때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:강조하고 말씀드렷던게 잇죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:제가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:&lt;자 이제 명상을 시작합니다&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:라고 말하면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:그 즉시</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:움직이지 말고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:그 상태 그대로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:명상에 들어가라..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:그럼 실제로 어찌한다?&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:그걸 수십번 수백번 강조햇어도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:명상 시작하자마자</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:삼분의 일이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:헛기침을 하거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:다리를 바꾸거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:몸을 꿈지럭대거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:35:교전:여태까진 가만이 잇다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:갑자기 어딜 긁거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:목을 돌리고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:자세 잡곱</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:우사기:갑자기 코가 가려울때가ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:별거 다합니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:그리고 심지어</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:시작한뒤 조금잇다보면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:월든:ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:멀쩡하던 사람이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:갑자기 막 크게 기침을 하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:어디를 떨고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:정말 별의별 황당한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:오만걸 다 합니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:심지언 졸면서 어디로 쓰러지고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:36:교전:자세 고치고...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:전부다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:&lt;집중이 편안함과 쾌감적 반응으로 이어진느게 아닌&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:불안반응으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:자동 반응되는 분들입니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:그러니</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:지금 알려드린 얼음땡을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:정말 황당한 상황에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:장난처럼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:자기를 골려주듯이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:시도해보세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:그게 첫번째 훈련입니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:37:교전:자 두번째 훈련은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:38:교전:아주아주 재밋습니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:38:교전:일명</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:38:교전:&lt;레빗 런&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:38:교전:난 왜 바로바로 생각이 안날까</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:38:교전:왜 참신한 생각이 안날까</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:38:교전:돌발상항에 대처가능한 생각이 안날까..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:38:교전:난 왜 고리타분한 생각만 나고 재밋는 상상이 안될까...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:38:교전:라는 부분들을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:38:교전:여기서 고치고 훈련해볼수 있습니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:38:교전:이건 인지적으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:39:교전:&lt;자동연상 기능의 제한&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:39:교전:에 해당되는 문제입니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:39:교전:그래서 이 기능을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:39:교전:제대로 가지고 있는지를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:39:교전:제가 늘 그걸로 테스트 해보는겁니다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:39:교전:망인테스트때 늘 나오는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:39:교전:&lt;잡념 테스트&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:39:교전:여기서 말하는 잡념이란....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:39:교전:그냥 쓸데없는 생각</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:39:교전:이란 좁은 개념이 아니고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:눈을 감앗든 떳든</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:어쨋든 잠을 자는 상태가 아닌</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:깨어있는 상태로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:뭔가의 과거 생각이나 추론이나 이런저런</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:머리속 상상이나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:아무튼 어떤 다양한 생각을 하다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:아 배고파.....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:뭐라도 먹을까...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:컵라면에 삼각김밥이나 하나 사먹어야겠다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:아 간만에 불닭 볶음면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:사먹을까..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:40:교전:아 그거 얼마전엔</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:친구놈이 한박스 사다놓고 가서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:먹느라고 그때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:똥꼬 허는줄 알았는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:그래서 열받아서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:다 같이 먹자고 불러서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:엄청 퍼먹였는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:그때 소주까지 먹고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:다들 죽는다고 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:이런 생각을 돌리다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:잠깐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:아주 잠깐정도 이상...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:그런 생각에 계속 빨려들어가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:그 생각이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:41:교전:그 생각을 하고 잇엇을때만큼은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:현실이 아닌 그냥 생각이다...가 아니라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:그 당시 애들과 머무르던 시절에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:빠진듯한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:현실 착각감을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:느끼는걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:잡념</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:&lt;몰입적 잡념.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:이라고 하는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:이야기를 바로바로 센스있게 못하는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:사람들중</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:일부의 사람들은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:이런 자동연상기능이 망가져서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:보통의 사람들이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:하루중에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:수십번 수백번 이상</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:그런 현실과 구분이 힘든</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:42:교전:실제같은 깊은 생각에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:빠지는 그 현상을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:그들은 경험하지 못합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:심지어 이게 많이 발달한 사람은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:운전하면서 이생각 저생각하다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:헉..하고 보면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:벌써 집에 도착한 경우도 잇죠 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:비전:ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:눈을 뜬채로 마치</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:자긴 내내 어떤 상상을 하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:몸이 나와 무관하게 운전을 해서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:집으로 데리고 온것같은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:신기한 경험을 하기도 합니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:43:교전:근데 당신은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:이와 같은 깊은 몰입의 잡념을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:하루중에 종종 경험하시나요/</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:라고 물엇을때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:음..하는거 같기도 하고 안니거 같기도 하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:한두번정도/</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:이리 말하는 사람은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:무조건</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:망인입니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:뇌안의 자동 연상 기능이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:망가진 사람입니다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:이거보다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:한단계 더 나아가서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:44:교전:그 기능이 망가진 사람은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:아에 꿈을 안꿉니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:아니 못꿉니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:왜냐...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:자동 연상 기능의 베이스가 되는게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:바로 꿈 이기 때문입니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:우리가 잘때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:꿈을 꿔서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:어느공간을 보면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:거기에 ㄴ반드시 나무든 차든 사람이든</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:괴물이든 뭐가 존재하게 되죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:왜?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:잠에서 꿈을 꿀때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:우리 뇌는 꿈을 현실로 착각합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:45:교전:고로 우리 현실엔 늘 뭐가 존재하기에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:우리가 꿈에서 좌측을 보면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:순식간에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:우리 뇌는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:자동 연상 기능을 활성화 시켜서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:좌측공간에 무수한 어떤것들을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:이미지 배치하게 합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:그때 사용되는 기능이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:바로 창의적 생각 연상 기능입니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:그럼 또 무엇을 알수 있냐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:자동연상기능의 개발에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:&lt;보여지느 시각적 이미지&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:가  매우 적극적으로 활용된다는 뜻입니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:46:교전:그래서 반대로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:몰입되게 엄청 이야기를 잘하는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:모든 사람은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:한결같이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:말로 듣는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:추교학:오홋</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:마치 눈으로 보듯이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:이해가 되죠...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:그 이유는 간단합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:월든:아하..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:그 사람은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:단지 생각난걸 논리적으로 설명하는게 아니고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:그 말하느 본인조차도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:자기 머리속에 떠올려진</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:이미지를 보면서 말하는것이기</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:때문입니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:47:교전:그러니 상대도 이미지가 잘 보일수 밖에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:그래서 말을 잘 못한느 사람들일수록</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:자기도 뭔가 이미지 보지 못한채로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:자꾸 논리적 개념적으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:설명만 하려드는겁니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:그러니 상대는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:뭔가 보인느게 없고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:보이는게 없으면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:우린 단박에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:이해를 가지기 어렵습니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:카드 외우기나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:어려운 숫자 외우기</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:단어나 낱말외우기 등의</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:요령이 그때문에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:48:교전:전부다 이미지화를 거친느겁니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:49:교전:우사기님, 우산, 추청년..병, 월든 병뚜껑</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:49:교전:이란걸 외우려 할때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:49:교전:가장 쉬운건</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:49:교전:우사기님이 우산을 들고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:49:교전:추청년님 배를 쿡쿡 찌르고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:자 손에 병을 들고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:움직이지 말고 서 잇어봐요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:라고 시키고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:옆에있는 월든님에겐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:자 그 병의 뚜껑을 살짝 따 봐요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:다 열진 말고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:그리 하고는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:냅다 뒤돌려 차기로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:발차기를 하니</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:견자단 처럼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:병뚜껑이 발차기에 맞아 열려서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:차르륵 돌아가며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:열리는 장면을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:머리속에 이미지로 그리면 됩니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:우사기:한장면에 다 넣는거군요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:50:교전:네...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:그럼 왜 한장면에 다 넣을가요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:아까 말씀드렷듯이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:안그럼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:인지의 촛점은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:한번에 하나밖에 못봐서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:다음장으로 넘어가야 하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:그럼 정보를 놓치기 때문입니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:고로 이미지화</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:그중에서도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:자동 이미지화는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:머리 좋아지는 방법중 하나이자</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:참신하고 기발한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:생각의 순발력을 가지는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:매우 중요한 핵심 기능이 됩니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:여기서 격차가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:팍팍 벌어집니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:- 이미지화 자체가 잘 상상 안되는 사람</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:51:교전:- 되긴 되도 자기가 그리듯 억지로 떠올린것만 보이고 저절로는 잘 안보이는 사람</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:52:교전:- 보인긴 보여도 그게 정지처럼 움직이진 ㅇ낳거나 기억속에 잇는 판에 박힌것만 보인느 사람</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:52:교전:- 특정한 카메라 포커스로만 보이고 다방면으로 앵글 이동이 안된느 사람</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:52:교전:- 뭔가 보려하면 이미지가 흩어지고 불투명한 사람</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:52:교전:-중간에 게속 움직이지 않고 자꾸 멈추고 막히는 사람</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:52:교전:이런식으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:52:교전:엄청나게 다양한 형태로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:52:교전:별의별 문제와 격차를 벌리며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:52:교전:벌어지게 됩니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:52:비전:아하..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:교전:근데 여기엔</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:교전:법칙이 있습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:교전:&lt;보려하면 이미지는 선명해지는게 아니라 반대로 옅어지고 흩어진다&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:우사기:맞아요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:교전:&lt;상황의 힌트나 제시를 해야 다음의 생각이 따라 붙는다&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:교전:그래서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:교전:우리뇌에 약간의</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:교전:부하를 주어서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:교전:저위에 언급한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:교전:버벅임을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:교전:없애는게 아니라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:53:교전:그러던 말던</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:상관없어지도록</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:만들어야 합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:그래서 한느게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:바로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:&lt;레빗 런.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:입니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:자 실제로 잠깐해보고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:안된느 문제를 이야기 해보시고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:제가 개선해드릴께요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:자 머리속에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:상상으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:토끼 한마리를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:떠올리세요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:자 그런후</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:바로 출발시키세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:무조건</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:달려 달려</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:그 토끼가 마구 달리는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:장면을 상상하세요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:그리고 그 토끼가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:게속 어디론가 달려가는지</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:살펴보세요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:잠깐 해보시고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:54:교전:그뒤의 자기 머리속 상태를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:55:교전:이야기해보세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:55:비전:검은 배경에 옅은 황색 의 길이 어두운곳을 향해 이어져있고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:55:우사기:말씀 끝나자마자 영상이 멈췄어요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:55:교전:ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:우사기:토끼가 앨리스 동굴을 굴러내려갔는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:비전:흰색토끼(귀안은 빨강) 가 그 길을 뛰어가긴 합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:교전:쉽지 않죠?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:교전:이런식으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:교전:레빗 런</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:우사기:바닥에 머리 퉁 찢더니 고개를 절레절레ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:교전:연습을 심심할때마다 해보시는거에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:교전:그러면서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:교전:요령...을 터득해가시는거에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:교전:제가 힌트를 드릴께요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:교전:첫째..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:교전:처음 알려드린...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:교전:법칙을 여기에도 적용하라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:56:교전:자 해볼까 하면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:무조건 토끼를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:바로 출발시키세요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:어떤 토끼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:하얀토끼?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:갈색토끼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:크기는 얼만큼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:어떻게 생겻냐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:우사기:당근을 입에 문 토끼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:왜 달리지 등등</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:같은걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:준비한채</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:레빗 런</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:명상을 싲가하지마세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:아까 얼음땡 명상때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:가장 핵심이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:바로 무조건 단번에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:정지라고 햇죠/</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:레빗 런도 같아요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:단번에 바로 준비도 없이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:57:교전:무조건</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:바로 달리게 해야 합니다 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:토끼가 보이든 안보이든</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:무슨 토끼인지 왜 달리는지</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:주변 이 어떤지</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:그게 보이든 안보이든</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:무조건 머리속에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:토끼를 막바로 무조건</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:닥치고 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:달리게 해야 합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:그것도 정신없이...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:왜 그럼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:토끼를 달리게 하느냐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:정지해 있는 토끼를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:떠올리라 하면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:우린 병신처럼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:그걸..자세히 들여다봅니다 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:그럼 안보입니다...ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:우사기:네ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:보면 볼수록</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:실제로안보이는거 같고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:58:교전:자신이 없고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:흐릿하고 컴컴하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:뻘짓하는것만 같습니다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:마치 무당친구 따라 갔다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:무당이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:저기 흉가밑에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:처녀귀신 보이지</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:그치?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:하니까. 아 그래 뭔가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:허연게 잇는거 같기도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:그리 맞장구치는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:삽질처럼 느껴저서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:아무것도 훈련이 안됩니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:그래서 우리가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:채 제대로 자세히</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:그 토끼나 주변상황을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:자세히 관찰할 틈도 없을정도로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 10:59:교전:마구 정신없이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:미친듯이 그 토끼를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:내달리게 해야 한느겁니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:그래야 오히려</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:안보이고 잇다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:라는 체감을 줄일수 있습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:즉..이동 집중은...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:상상 집중은...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:그래 보인다 뭐가 보인다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:위주의 집중이 아니고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:어디가 안보이네</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:저기도 안보이네</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:이것도 모르겟네</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:저것도 모르겟네</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:라는 안보이고 상상안된느것들의</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:00:교전:무시적 몰입에 가깝습니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:그러니 그럴 겨를도 없게 하기 위해서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:달리게 하는겁니다....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:이 부분은 이해되셧죠?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:자 이제 엄청나게 재밋으면서도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:마구마구 다 잘보이게 해드리죠...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:우사기:넹</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:비전:네.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:이때 바보 최면가를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:떠올리시머ㅕㄴ 돕니다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:최면에 걸어놓고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:자 눈앞에 뭐가 보이죠?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:라고 물으면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:그는 무조건 바보입니다 ㅎㅎ...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:01:교전:누군가 저기서 다가온느 발자국 소리가 들립니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:02:우사기:좀 막연해요ㅋㄱ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:02:교전:구두소리 같습니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:02:교전:잘 들어보세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:02:교전:그럼 남자인지 여장니지 알수 잇을겁니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:02:교전:자 당신앞에 슬쩍</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:02:교전:구두코가 보입니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:02:교전:자 남자 신발인가요 여자신발인가요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:02:교전:이리 물어야</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:02:교전:바보는 아닌 최면가 입니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:02:비전:아하.. 상황 힌트와 움직임을..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:02:교전:네..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:상황 힌트를 주는겁니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:자 그럼 제가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:레빗 런에 그걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:적용해보도록 하죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:어느정도 막 달리다보면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:어느정도라는 시간은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:길어야</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:일이초 정도입니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:단조로운 상상은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:우리에게 다음 상상의 힌트를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:주지 않기에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:점점더 안보이게 됩니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:그래서 계속 변화를 주고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:그 힌트를 이어가야 합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:자 출발</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:토끼가 달립니다....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:더 빨리</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:더 빨리 발을 놀려서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:달립니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:03:교전:당연히</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:토끼니까 달릴수록</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:점점더 뛰는 높이가 달라집니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:앞에 장애물이 잇습니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:넘어..쩜프</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:조금더 높은 장애물이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:쩜프 힘껏 넘어</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:좌로 틀어....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:우로 틀어....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:자 마지막으로 아주 높은 장애물을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:넘고서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:으아아악</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:떨어집니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:아주 깊은 저 밑으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:자......</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:그리고 착지......</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:...................</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:04:교전:어디에 착지햇나요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:05:우사기:강물에 빠졌어요;;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:05:교전:네......</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:05:교전:신기하죠?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:05:교전:제가 유도햇을때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:05:교전:전 물이란..이미지를 하나도 언급안햇는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:05:교전:제가 기대한것처럼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:05:교전:물에 빠졋잖아요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:05:교전:저는 심지어</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:06:교전:빠졋다고도 안하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:06:교전:착지햇다고 햇어요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:06:교전:그런데 왜 물에 빠진 연상이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:06:교전:떠올랏을까요....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:06:교전:그게 바로 뇌의 연상작용 때문입니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:06:교전:토끼가 달리다가 어디서 쭈욱 떨어지는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:06:교전:상황에서 다음에 나와야 할</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:06:교전:가장 쉽고 빠른 대처가 가능한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:06:교전:기존 기억과 경험의 정보중</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:06:교전:그리 강물에 빠지는게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:06:교전:가장 손쉬운 연결이였기 때문입니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:07:교전:우린 다음의 연상이 나오게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:07:교전:힌트를 제공하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:07:교전:게속 몰아붙이며 푸시를 가하면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:07:교전:뇌는 그걸 해냅니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:07:교전:그걸 훈련한느게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:07:교전:레빗 런</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:07:교전:입니다....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:07:교전:이때이 핵심 포인트는,,,</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:07:교전:자세히 보려하지 마라...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:07:교전:상항의 압박을 가해라...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:07:교전:게속 변하적 힌트 상황을 주어라...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:또 다르게 해볼까요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:자 출발....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:뒷발로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:땅을 힘차게 박차고 나갑니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:토끼는 뒷발로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:달리는 동물입니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:언덕을 올라가기</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:편한 구조입니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:풀숩 사이로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:달립니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:좀더 빨리 달립니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:그때 뭔가 뒤에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:꼬리를 물려합니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:잡힐뻔 햇습니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:08:교전:놀라서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:크게 쩜프..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:그리고 바로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:안잡히려고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:좌로 급격하게 턴....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:바위위를 하나 넘어서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:달립니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:그 순간</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:뒤에서 따라오던게 덥치며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:그놈도 쩜프</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:꼬리털 일부를 잡겨 뜯기며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:다시한번더 우측으로 급격하게 턴</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:그리고 뒤를 돌아봅니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:09:교전:뭐가 따라오나요?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:우사기:눈이빨간 호랑이요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:월든:호랑이요!</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:둘다 비슷하죠?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:왜/</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:비전:첨엔 초록 뱀이었는대 중간에 늑대로 바뀐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:이게 해보면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:어떤식으로 실력이 느는지를 알수 있"어요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:우사기:제일 익숙한 연상동물ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:처음엔</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:익숙한것들로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:보여주고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:나중엔 여유가 생기면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:재미잇는걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:자꾸 연상하게 됩니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:추청년님이 배고파서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:네발로 달리며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:교전:쫓아온느게 보이기도 하죠 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:비전:ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:10:월든:ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:우사기:어머 무서워라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:중요한건</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:영상이 멈추면 안되요....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:일부의 모습</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:발의 모양</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:눈의 생김새</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:털의 느낌등</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:그걸 뭔가 자세히</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:차분하게 보려고 하면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:안되요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:그냥 자꾸 영상이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:게속 움직이게 하시고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:그럴려면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:마구 서둘고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:달리게 해야 해요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:그러면서....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:몇초 상간으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:11:교전:게속 변화를 줘서....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:오만 변화를 주세요....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:옆에서 보던 앵글을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:뒤에서 하늘에서 보기도 하고...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:비전:오호..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:달리는 토끼의 털이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:흩날리는 모습을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:보기도 하고......</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:주변의 풀이 바람에 흔들리며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:쭈우욱 포커스나 하늘로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:드론으로 찍듯이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:바꾸기도 하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:그때 독수리가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:따악....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:쭈우욱 내려오며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:12:교전:독수리가 토끼를 잡으려고 하는순간....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:지나가던 자동차 앞유리에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:꽤액</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:그래서 다행이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:비전:ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:토끼는 차 바퀴 사이로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:빠져나가..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:달리고 달리고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:이러식으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:게속</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:다양한 돌발변수와</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:재미난 연상과</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:변화적 요소를 넣어서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:게속 달리고 달리고 하는거에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:그러다보면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:나중엔 이미지를 움직이게 하는게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:너무 쉬워지고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:나오는 스토리도 정말</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:재밋어지고....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:그러다 잠깐잠깐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:너무도 깊이 몰입되서...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:13:교전:깜빡 현실로 착각하기도 하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:14:교전:생생한 장면을 보기도 합니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:14:교전:아 귀여워 토끼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:14:월든:아하</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:14:교전:만져볼까 하느순간</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:14:교전:약간 기름지면서도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:14:교전:보실보실한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:14:교전:토끼 털 느낌이 느껴지고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:14:교전:노릿한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:14:교전:야생동물 냄새도 나고....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:14:교전:그 순간 토끼똥</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:14:교전:뿌지직 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:15:교전:별의별 다양한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:15:우사기:🙊</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:15:교전:변화를 넣어서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:15:교전:상상할수 잇게 되요....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:15:교전:그러다 잠깐잠깐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:15:교전:몰입 체험을 하면서..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:15:교전:실력이 느는거에요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:15:교전:중요한건</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:15:교전:- 게속 움직여라 뭐든 움직여라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:15:교전:- 집중하는대신 게속 상황에 변화를주어라..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:15:교전:- 너무 오래하지 말고 잠깐 재미처럼 즐겨라....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:그럼 어느순간 아시게 될꺼에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:아 교전님은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:강의도 그리 하시고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:농담도 그리 하시는구나 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:우사기:아하</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:월든:오호오호</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:제가 그래서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:강의때 중간에 쉬엇다 하는걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:잘 안하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:우사기:강의도 영상으로 보시는?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:미친듯이 계속</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:자판을 치는거에요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:비전:아하 ..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:말을 못하는 사람일수록</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:그래서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:16:교전:말을 멈추지 말고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:게속 무슨 말이라도 해라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:그런식 압박을 걸어라...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:그리 요구하는거고요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:오늘 배운 두가지가 그래서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:정동</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:멈춤과 이동의</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:가장 기초적인 훈련이에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:월든:넵</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:전 예전에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:우사기:재밌었어요ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:사부님을 상대로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:밤새 내내</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:회의하면서 의견을 냇어요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:말그대로 쉴새없이 말하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:17:교전:질문에 답변하면서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:18:교전:레빗 런이죠 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:18:교전:생각해보고 말하면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:18:교전:쳐맞는거에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:18:월든:ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:18:교전:생각은 말하다보면 생각나는거지</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:18:교전:생각한뒤에 말하는게 안디ㅏ..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:18:교전:근데 사람들은 말하다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:18:교전:자기 말이 삼천포로 빠지거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:18:교전:별 반응이 없으면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:19:교전:생각을 다잡고 가다듬으려 하죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:19:교전:오히려 압박을 더 강하게 걸고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:19:교전:변화를 주어</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:19:교전:무슨 말이든 튀어나오게 하려고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:19:교전:푸시를 해야 하는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:19:교전:반대로 하는거에요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:19:우사기:맞아요 제가 무슨 헛소리를 할지모르니까ㅜㅜ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:19:교전:그걸 아주 쇼킹하게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:19:교전:비이성적으로 한느게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:19:교전:접신이에요....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:19:교전:이번에 우리 남편이 뭐하나 하려고 한느데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:잘될까요?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:........</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:그 말을 듣는순간</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:뭔지 잘 모르겟고 할말이 없어짐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:생각이 안남..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:잠시 그리 생각이 버그날때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:안에서 힘의 부정적 반응을 보이며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:출발시켜라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:명령을 내리죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:알든 모르든 출발시켜</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:안그럼 아무것도 해내지 못해</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:지금 당장...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:그것도 결론부터</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:출발시켜...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:아..난 아무것도 모르겟는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:20:교전:어떻게 출발시켜</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:21:교전:뭘 알아야 말을 해주는거잖아.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:21:교전:난 지금 상담중이라고..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:21:교전:그치만 힘이 그걸 빰따귀</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:21:교전:올려붙이고...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:21:교전:바로 이리 말을 싲가하죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:21:교전:그냥 말을 하면 되지</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:21:교전:그러식으로 돌려서 말하세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:21:교전:왜요 용한지 테스트 해보시려고?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:21:교전:이번에 뭐 하나 해보려고가 아니지...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:21:교전:그건 사업쪽 질문같잖아요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:21:교전:근데 이건 사업쪽이 아닌걸....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:승진이잖아요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:이번에 뭔가 올라갈 자리가 하나 잇는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:될까요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:라고 물었어야지...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:라고 말하고 잇는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:저를 발견하게 됩니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:이 지점까지 극강으로 끌어올린</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:뇌의 능력 사용이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:화선진류입니다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:그럼 제가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:어찌 그리 단번에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:그리 말햇을가요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:무슨 근거로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:22:교전:무슨 자신으로....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:물론 힘을 가져서 이겟지만</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:이걸 현대과학적으로 말하면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:저는 상대방 여성의 말투 표정</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:어감 그 사이에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:느낀 어떤 이질감을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:제 그동안 살아오면서 느낀</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:다른 사람들과의 기억 경험</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:그 빅데이타와 연결해낸겁니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:그리고 그걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:제 강력한 압박의 푸시가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:최단 경로로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:23:교전:결론적 정보와 연결해서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:결론부터 거꾸로 끌어낸겁니다....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:그런뒤 화가 안나면서...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:되긴되지...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:되도 별 메리트가 없어서 글치만 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:이리 말하게 되죠...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:어짜피...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:될 상황이고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:될 짬이고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:거의 내정이잖아요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:..........</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:근데 재밋는게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:제가 이런식 프레스를 정말 강하게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:24:교전:드라이브 걸어서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:신빨 저리가라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:압박으로 힘을 드러낼때는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:그리 말 툭 건네고나서도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:너무 여유롭다는겁니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:왜?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:당연히 맞으니까 ㅎㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:네비:와 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:전 그런 상담을 기록도 가지고 있어요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:예전 교수님한테 교육자료로 줄려고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:채팅상으로 일부러</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:상담기록 남긴것도 잇거든요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:외부인들....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:자기 직장에서 짤렷다고 어떡하냐고 하길래</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:25:교전:그리 말해준것도 잇어요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:교전:회사 가서 확인해봐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:교전:너 안짤렷어...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:교전:너 안짤려...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:교전:ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:비전:헛 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:교전:실제로 채팅으로 상담해준 자료가 남아 있어요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:우사기:음?짤렸는데요?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:교전:안짤렷다니까 ㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:교전:짤렷다는건 그사람 말이고..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:교전:자긴 너 짜른다고 하니</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:교전:난 짤렷구나 그리 생각햇나보죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:26:교전:그래서 그두이ㅔ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:한참 있다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:다시와서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:또 상담햇어요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:같은 사람이...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:안짤렷고 잘 다니고 잇고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:다른 문제로 또 상담하러 왓다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:저한테욕 뒤지게쳐먹엇죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:왜 내가 무료로 상담해주니까</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:동네 사주풀이 등신같냐고 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:고맙다고 중간에 인사한번 없다가...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:이제와서 어쩌구냐고 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:그따구로 살지말라고 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:27:교전:여러분들의 뇌를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:자꾸 불신하지 마세요....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:스트레스 탈출해서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:우사기:ㅜㅜ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:격하게 아무것도 생각하기 싫다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:뭔가 실수하기 싫다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:쫄리며 내몰린느게 무섭다</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:하지말고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:자꾸 자기 뇌에 압박을 걸어야 해요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:저처럼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:결론을 내라 해답을 내라도 아니고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:그게 뭐든</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:뭐라도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:아무 생각이나 내놔봐라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:하는것조차동</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:우리 뇌가 못한다는게 말이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:28:교전:안되잖아요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:learn 배움 학인:네 교전님</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:근데 실제론</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:제가..상명학 고참들 데리고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:운영진 비슷하게 팀 꾸려서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:같이 회의하며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:의견물으면/</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:꿀먹은 벙어리</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:또는 아까 의견낸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:자기 의견대로 하자고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:게속 고집툴툴</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:29:교전:내 말을 들어먹지 않아서 못해먹겟네</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:우사기:두뇌오버쿨럭ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:전권을 위임받은게 아니라서 못하겟네</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:내 말대로 하면된느데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:왜 다른 소리 하는지모르겟네</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:이딴 소리만 하는거죠..ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:그러니까...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:지금 내가 원한느건</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:무슨 한두개 해답꺼내기가 아니고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:수백 수천개</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:그게 뭐든 게속 의견내라는거야</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:근데 못하잖아 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:그걸 할수 잇는 채일때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:척 하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:이거면 되요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:라고 말하는게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:30:교전:그게 진짜인거에요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:그게 사업과 프로젝트이 묘미이기도 한거고요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:상명학의 대표 철학</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:신속, 광속</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:닥치고 바로 의견내</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:바로 출발해</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:시도해</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:그럼 뭐가 틀렷는지도 바로 알게돼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:그럼 바로 자기 피드백해서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:다음 수정안내</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:내</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:또 내</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:자 좋아</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:바로 적용 착수...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:이것의 무한반복이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:31:교전:아무렇지 않은 일상화로 이어지는것</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:32:교전:그게 사업이에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:32:교전:그리고 그건</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:32:교전:스트레스도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:32:교전:과중한 업무도 아니에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:32:교전:그런 강력한 뇌의 프레스는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:32:교전:놔에 가소성을 일으켜서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:32:교전:엄청난 새로운 체감을 주고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:32:교전:엄청난 몰입을 일으키고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:32:교전:강력한 쾌감 호르몬을 분비시키고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:32:교전:대단한 에너지를 발생시켜요....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:32:교전:제가 괜히 강의때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:게속 푸시푸시푸시 하는게 아니에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:그게 아니면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:몇시간 가까이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:꼼작 앉고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:이리 복잡한 논리적 강의 못해요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:쾌감 호르몬이 분비가 안되니까</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:추교학:쿠오오</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:그럼 그런 엄청난</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:머리속 레빗런때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:사실 제 실제 몸은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:의자에 앉은채로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:목박은듯</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:못 박은듯</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:꼼짝도 않고 잇엇다는걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:33:교전:알게되죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:34:교전:강력한 정은 동을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:34:교전:강력한 동을 정을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:34:교전:그리 서로 순환구조로 불러내요....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:34:교전:그러다 아닐때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:34:교전:툭 털어놓고 쉬는거에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:34:교전:왜 중고차 살때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:34:교전:차에 흰장갑이나 드라이빙 슈즈</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:34:교전:있는 사람차를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:34:교전:잘 안사는지 아세요?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:34:교전:ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:34:교전:그런 인간들은...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:차를 안밟아요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:늘 살금살금 다니죠...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:차가 가진 엔진의 토크를</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:채 삼분의 일도 안쓰고 살아요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:그래서 그런 차는 사서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:고속도로 달리죠?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:차가 드럽게 안나가요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:우사기:아..오히려 좋은차인줄</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:힘이 없어요 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:그래서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:유명한 차 튜닝 업체들</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:쓰던 엔진이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:오래동안 안써서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:35:교전:부식된거 고쳐서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:다시쓸때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:법칙이 무조건</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:특정 마력이상으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:얼마 시간이상동안</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:미치듯이 구동되게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:만드는거에요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:그때 쭈욱 끌어낸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:엔진 힘의 토크가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:그 차의 한계치니까요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:달려주지 않은 차</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:그런 말은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:경주차 경주마론 못쓰는겁니다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:추교학:아하</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:교전:그냥 농사나 시켜야지 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:36:추교학:ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:추교학:나귀네요 말이아니라..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:learn 배움 학인:아..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:푸시푸시푸시푸시푸시푸시</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:저는 뭐 미친놈이라서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:여러분들하고 같이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:밤새 상명학 업무하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:회의하고 그런줄 아세요?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:그때 저 못보셧어요?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:제가 얼마나 활활</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:에너지 버닝한채로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:일하는지?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:그때 간만에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:엔진이 터질듯</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:고막이 나갈듯</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:제 머리가 팽팽 돌아가는걸</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:느끼기 때문이에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:그리되면...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:37:교전:피곤 잠, 스트레스</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:단번에 다 달아나요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:예전에 제가...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:아침에 강의 하던 시절</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:강의 바로 직전까지</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:잠자고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:부팅 버튼 누르고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:켜지기 기다리는동안에도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:눈감고 자다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:강의방 들어가서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:몇줄 치면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:바로 엔진이 최대토크 사용으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:넘어가섲</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:잠 다 달아나고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:엄청나게 머리가 굴러갓던</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:이유가 그거에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:처음부터 압박을 크게 걸어서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:38:교전:참신한 다음 의견을 내지 않을수 없도록</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:39:교전:푸시해라...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:39:교전:그래서 겨우 토끼가 달리며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:39:교전:어디를 넘고 어디로 뛰어내리면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:39:교전:바로 더 푸시하는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:39:교전:다음 상황을 여유주지 말고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:39:교전:따라붙이고 몰아붙여라....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:39:교전:그리 머리를 안써주면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:39:교전:머리가 띨빵해지는거에요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:39:교전:머리가 안굴러가요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:39:교전:흰장갑끼고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:39:교전:의자 앞으로 당기고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:40:교전:팔에 햇빛 탈까</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:40:교전:토시 끼고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:40:교전:드라이빙 슈즈 갈아신고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:40:교전:조심조심 몰던 차를 사다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:40:교전:어디다 써요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:40:교전:아이들 범퍼카도 아니고 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:40:교전:최근 당신의 머리속에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:40:교전:엔진의 굉음</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:40:교전:을 들어보신적이 있나요?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:40:교전:그래서 부하가 넘쳐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:퍼진경험이 잇나요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:그게 잇어야 정상인거에요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:근데 다들</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:그걸 스트레스 피하가며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:하기 싫은 무어슬</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:꾸준히 성실하게 반복하는 짓꺼리로만</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:노력해요.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:그러니 그저 그 모든게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:&lt;피곤&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:&lt;하기 싫음&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:&lt;스트레스&gt;죠...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:왜 한국인이 머리가 좋은데요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:글로벌 사자성어</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:&lt;빨리빨리&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:교전:ㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:41:비전:ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:우사기:그래서 쓸데없이 진빼지말라고하신..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:그리고 뭔가 레빗 런처럼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:마구 기합들어가고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:푸쉬푸시</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:게속게속</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:더 쎄게 더 쎄게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:그리 부하 걸리지 않으면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:걍 때려치고 차라리 쉬세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:할땐 그리 제대로 하고요..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:그래서보며 ㄴ제가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:극과극이잖아요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:평소엔 설렁설렁</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:성격도 느긋 편안 해피</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:42:교전:이다가..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:자가 뭔가 일 출발시키거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:막 필받아서 회의하거나 일할때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:모습보세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:오나전히 다른 사람같잖아요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:그런저한테 기눌려서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:비전:아하..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:눈치만 보고 답변하는거 조심스러워하다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:추교학:아..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:겨우 몇개 의견내고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:마무리되면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:휴..하고 도망가기 바쁜 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:제가 그게 싫어서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:이젠 운영진을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:팀제로 운영 안하는거에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:누가보면 스승이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:43:교전:일 부려먹거나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:막 쪼이고 스트레스 주는것같은 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:그 '맛'을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:전수해주려고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:힘의 전수적</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:공부로 그걸 시키는건데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:밤새 미친듯이 푸시푸시해서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:오르가즘에 육박하는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:카타르시스를 느끼긴 커녕</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:언제 쉬나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:언제 밥먹나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:졸린데...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:대충하고 자지</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:왜 또 저러시나..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:44:교전:그리 눈치를 주니 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:45:교전:그러니 질답도 재미가 없는거죠..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:45:교전:질문하면 제가 답변해주고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:45:교전:그럼 전 답변해주다가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:45:교전:마구 불타서 답변해주면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:45:교전:그걸 더 불타게 하는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:45:교전:질문을 하긴 커녕</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:45:교전:아...글쿠나</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:45:교전:끝 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:45:교전:아니 그리 답변을 해줫는데</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:45:교전:뭐 또 생각나는게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:45:교전:어찌 그리 없을수가 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:46:교전:난 책을 한권보면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:46:교전:책을 몇권 쓸 생각이 나던데 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:46:교전:이런 것들이 전부다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:46:교전:오늘 배운 두가지</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:46:교전:정동의 기초적 훈련 영역에서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:46:교전:다져지는것들이에요...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:46:우사기:넵ㅜㅜ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:이런걸 재밋게 문화적으로 하는게 많아요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:즉흥 퍼포먼스 같은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:재즈</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:도 그런 음악이고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:랩의 사이퍼</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:같은 즉흥랩도 같고..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:learn 배움 학인:아..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:과거 문인들이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:추교학:아하</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:시짓기도 같고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:문구 하나 대면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:바로 그걸로 시짓고...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:운을 띄워보시게나...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:47:교전:그럼서 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:그럼 그짓을 왜 햇냐</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:그게잘될때</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:아 그때 뭔가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:기분이 열라 좋앗던거 같애...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:뇌에서 이상한 호르몬이 막 나와서</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:신들린듯 취하고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:그때 나를 넘어서는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:신비한 위대한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:경험을 해본거 같애</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:그래서 하는거에요....</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:그걸 경험하게 되면</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:내가 아니라..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:내 기존 능력이 아니라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:48:교전:내 기억이나 경험이 아니라</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:그 흐름을 믿게되죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:그걸 과거 이래로 위대한 사람들이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:문학적으로그리 표현해성요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:&lt;신이 주신 영감&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:설마하니</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:미켈란젤로가</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:모든 그림과 조각을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:미리 다 준비구상한후</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:머리속에 잇던걸 그냥</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:조각하고 그런거라고요?</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:일부를 가지고 출발하고 나머지는</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:49:교전:&lt;만난겁니다&gt;</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:그럼 그게 삼영학의 근본</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:인생철학이 되죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:우린 기존의 내 생각을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:미래의 인생에 구현실현 하려고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:사는게 아니라..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:그것을 촉발삼아 부족한 상태로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:나아가는것으로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:나조차 짐작하지못한</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:내 기존과 동떨어진</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:그래서 너무도 신기하고 감동적인</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:또 다른 나와 내 인생을</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:찾고, 만나기 위해서 산다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:생각한걸 말하는 병신은 없다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:말하다 어떤 생각을 만날뿐이다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:50:교전:그럴려면 부족한채로</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:51:교전:게속 말하고 도전하고 나아가야 한다.</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:51:교전:그 압박을 게속 강하게 걸어야 한다...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:51:교전:나를 믿지마라...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:51:교전:신이 인간에 건네준</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:51:교전:그 신비한 원래의 기능을 믿어라...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:51:교전:웃긴 말을 하는 웃기는 사람은 없어요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:51:교전:그게 얼마나 재미없겟나요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:51:교전:자기도 말해놓고 웃기니까</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:51:교전:매일 웃기는거지 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:51:교전:그게 재밋어서 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:그들조차 늘 찾고 만나는거지</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:준비한걸 똥싸듯 토해놓는게 아니랍니다..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:그런걸 못하는 바보들이</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:웃기려고 늘 하는게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:개인기에요 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:방송인들을  보세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:정말 웃기는 사람은</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:하나같이 개인기가 없어요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:유재석도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:강호동도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:김구라도</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:52:교전:아무도 개인기가 없어요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:53:learn 배움 학인:아하</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:53:교전:성대모사도 못하고..</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:53:교전:장기도 없어요 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:53:교전:그래서 늘 만나야 하죠</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:53:교전:그들은 그게 신기하고 재밋는거에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:53:교전:그걸 만나는게...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:53:교전:토끼는 그저 달리는거지</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:53:교전:준비하거나 만들어내지 않는답니다 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:53:교전:자 오늘 강의는 여기까지에요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:53:교전:오늘 배우신거</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:교전:꼭 주고 싶은 동료에게</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:교전:건네며</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:교전:안부인사도 건네고</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:교전:조금씩 친해져 보세요</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:교전:오늘 다들 주말인에</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:우사기:감사합니다!</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:교전:고생들 많으셧어요 ^^</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:교전:달려...</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:교전:런런 ㅎㅎ</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:월든:와..넵 감사합니다!</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:learn 배움 학인:네 교전님 감사합니다~!</t>
+  </si>
+  <si>
+    <t>2019년 9월 28일 오후 11:54:비전:감사합니다 ㅎㅎ</t>
   </si>
 </sst>
 </file>
@@ -5865,7 +10934,7 @@
   <dimension ref="A1:L213"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D20"/>
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9556,8 +14625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9952,8 +15021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+    <sheetView topLeftCell="A16" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10444,8 +15513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11904,14 +16973,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:L8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
+    <col min="1" max="1" width="13.00500011" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="31.00499916" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" width="16.13000011" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" width="29.25499916" customWidth="1" outlineLevel="0"/>
@@ -12074,7 +17160,7 @@
     </row>
     <row r="12" spans="1:12" ht="121.500000" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
